--- a/formulieren/02000.xlsx
+++ b/formulieren/02000.xlsx
@@ -10,10 +10,10 @@
     <sheet name="02024" sheetId="5" r:id="rId5"/>
     <sheet name="02030" sheetId="6" r:id="rId6"/>
     <sheet name="02031" sheetId="7" r:id="rId7"/>
-    <sheet name="02032" sheetId="8" r:id="rId8"/>
-    <sheet name="02040" sheetId="9" r:id="rId9"/>
-    <sheet name="02070" sheetId="10" r:id="rId10"/>
-    <sheet name="02080" sheetId="11" r:id="rId11"/>
+    <sheet name="02040" sheetId="8" r:id="rId8"/>
+    <sheet name="02070" sheetId="9" r:id="rId9"/>
+    <sheet name="02080" sheetId="10" r:id="rId10"/>
+    <sheet name="02032" sheetId="11" r:id="rId11"/>
     <sheet name="02090" sheetId="12" r:id="rId12"/>
     <sheet name="02110" sheetId="13" r:id="rId13"/>
     <sheet name="02301" sheetId="14" r:id="rId14"/>
@@ -21,8 +21,8 @@
     <sheet name="02520" sheetId="16" r:id="rId16"/>
     <sheet name="02530" sheetId="17" r:id="rId17"/>
     <sheet name="02540" sheetId="18" r:id="rId18"/>
-    <sheet name="02570" sheetId="19" r:id="rId19"/>
-    <sheet name="02560" sheetId="20" r:id="rId20"/>
+    <sheet name="02560" sheetId="19" r:id="rId19"/>
+    <sheet name="02570" sheetId="20" r:id="rId20"/>
   </sheets>
 </workbook>
 </file>
@@ -408,1630 +408,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>omschrijving</v>
-      </c>
-      <c r="B1" t="str">
-        <v>inhoud</v>
-      </c>
-      <c r="C1" t="str">
-        <v>weergave</v>
-      </c>
-      <c r="D1" t="str">
-        <v>uitlijnen</v>
-      </c>
-      <c r="E1" t="str">
-        <v>regel verwijderen</v>
-      </c>
-      <c r="F1" t="str">
-        <v>regel template</v>
-      </c>
-      <c r="G1" t="str">
-        <v>P302</v>
-      </c>
-      <c r="H1" t="str">
-        <v>P313</v>
-      </c>
-      <c r="I1" t="str">
-        <v>P383</v>
-      </c>
-      <c r="J1" t="str">
-        <v>P384</v>
-      </c>
-      <c r="K1" t="str">
-        <v>P379</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Soort verzekering</v>
-      </c>
-      <c r="B2" t="str">
-        <v>10142</v>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="F2" t="str">
-        <v>02 Soort verzekering            10142</v>
-      </c>
-      <c r="G2" t="str">
-        <v>x</v>
-      </c>
-      <c r="H2" t="str">
-        <v>x</v>
-      </c>
-      <c r="I2" t="str">
-        <v>x</v>
-      </c>
-      <c r="J2" t="str">
-        <v>x</v>
-      </c>
-      <c r="K2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v/>
-      </c>
-      <c r="B3" t="str">
-        <v>10142</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E3" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v>x</v>
-      </c>
-      <c r="H3" t="str">
-        <v>x</v>
-      </c>
-      <c r="I3" t="str">
-        <v>x</v>
-      </c>
-      <c r="J3" t="str">
-        <v>x</v>
-      </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Soort verzekering</v>
-      </c>
-      <c r="B4" t="str">
-        <v>VvAA camperverzekering</v>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v>02 Soort verzekering            VvAA camperverzekering</v>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <v/>
-      </c>
-      <c r="K4" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Merk en type</v>
-      </c>
-      <c r="B5" t="str">
-        <v>10218 10219 10220</v>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v/>
-      </c>
-      <c r="F5" t="str">
-        <v>03 Merk en type                 10218 10219 10220</v>
-      </c>
-      <c r="G5" t="str">
-        <v>x</v>
-      </c>
-      <c r="H5" t="str">
-        <v>x</v>
-      </c>
-      <c r="I5" t="str">
-        <v>x</v>
-      </c>
-      <c r="J5" t="str">
-        <v>x</v>
-      </c>
-      <c r="K5" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v/>
-      </c>
-      <c r="B6" t="str">
-        <v>10218</v>
-      </c>
-      <c r="C6" t="str">
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E6" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <v>x</v>
-      </c>
-      <c r="H6" t="str">
-        <v>x</v>
-      </c>
-      <c r="I6" t="str">
-        <v>x</v>
-      </c>
-      <c r="J6" t="str">
-        <v>x</v>
-      </c>
-      <c r="K6" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v/>
-      </c>
-      <c r="B7" t="str">
-        <v>10219</v>
-      </c>
-      <c r="C7" t="str">
-        <v/>
-      </c>
-      <c r="D7" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E7" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F7" t="str">
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <v>x</v>
-      </c>
-      <c r="H7" t="str">
-        <v>x</v>
-      </c>
-      <c r="I7" t="str">
-        <v>x</v>
-      </c>
-      <c r="J7" t="str">
-        <v>x</v>
-      </c>
-      <c r="K7" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v/>
-      </c>
-      <c r="B8" t="str">
-        <v>10220</v>
-      </c>
-      <c r="C8" t="str">
-        <v/>
-      </c>
-      <c r="D8" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E8" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F8" t="str">
-        <v/>
-      </c>
-      <c r="G8" t="str">
-        <v>x</v>
-      </c>
-      <c r="H8" t="str">
-        <v>x</v>
-      </c>
-      <c r="I8" t="str">
-        <v>x</v>
-      </c>
-      <c r="J8" t="str">
-        <v>x</v>
-      </c>
-      <c r="K8" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Kenteken</v>
-      </c>
-      <c r="B9" t="str">
-        <v>10033</v>
-      </c>
-      <c r="C9" t="str">
-        <v/>
-      </c>
-      <c r="D9" t="str">
-        <v/>
-      </c>
-      <c r="E9" t="str">
-        <v/>
-      </c>
-      <c r="F9" t="str">
-        <v>04 Kenteken                     10033</v>
-      </c>
-      <c r="G9" t="str">
-        <v>x</v>
-      </c>
-      <c r="H9" t="str">
-        <v>x</v>
-      </c>
-      <c r="I9" t="str">
-        <v>x</v>
-      </c>
-      <c r="J9" t="str">
-        <v>x</v>
-      </c>
-      <c r="K9" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v/>
-      </c>
-      <c r="B10" t="str">
-        <v>10033</v>
-      </c>
-      <c r="C10" t="str">
-        <v/>
-      </c>
-      <c r="D10" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E10" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F10" t="str">
-        <v/>
-      </c>
-      <c r="G10" t="str">
-        <v>x</v>
-      </c>
-      <c r="H10" t="str">
-        <v>x</v>
-      </c>
-      <c r="I10" t="str">
-        <v>x</v>
-      </c>
-      <c r="J10" t="str">
-        <v>x</v>
-      </c>
-      <c r="K10" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Meldcode</v>
-      </c>
-      <c r="B11" t="str">
-        <v>10112</v>
-      </c>
-      <c r="C11" t="str">
-        <v/>
-      </c>
-      <c r="D11" t="str">
-        <v/>
-      </c>
-      <c r="E11" t="str">
-        <v/>
-      </c>
-      <c r="F11" t="str">
-        <v>05 Meldcode                     10112</v>
-      </c>
-      <c r="G11" t="str">
-        <v>x</v>
-      </c>
-      <c r="H11" t="str">
-        <v>x</v>
-      </c>
-      <c r="I11" t="str">
-        <v>x</v>
-      </c>
-      <c r="J11" t="str">
-        <v>x</v>
-      </c>
-      <c r="K11" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v/>
-      </c>
-      <c r="B12" t="str">
-        <v>10112</v>
-      </c>
-      <c r="C12" t="str">
-        <v/>
-      </c>
-      <c r="D12" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E12" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F12" t="str">
-        <v/>
-      </c>
-      <c r="G12" t="str">
-        <v>x</v>
-      </c>
-      <c r="H12" t="str">
-        <v>x</v>
-      </c>
-      <c r="I12" t="str">
-        <v>x</v>
-      </c>
-      <c r="J12" t="str">
-        <v>x</v>
-      </c>
-      <c r="K12" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Beveiliging</v>
-      </c>
-      <c r="B13" t="str">
-        <v>11236</v>
-      </c>
-      <c r="C13" t="str">
-        <v/>
-      </c>
-      <c r="D13" t="str">
-        <v/>
-      </c>
-      <c r="E13" t="str">
-        <v/>
-      </c>
-      <c r="F13" t="str">
-        <v>06 Beveiliging                  11236</v>
-      </c>
-      <c r="G13" t="str">
-        <v/>
-      </c>
-      <c r="H13" t="str">
-        <v/>
-      </c>
-      <c r="I13" t="str">
-        <v/>
-      </c>
-      <c r="J13" t="str">
-        <v>x</v>
-      </c>
-      <c r="K13" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v/>
-      </c>
-      <c r="B14" t="str">
-        <v>11236</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E14" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F14" t="str">
-        <v/>
-      </c>
-      <c r="G14" t="str">
-        <v/>
-      </c>
-      <c r="H14" t="str">
-        <v/>
-      </c>
-      <c r="I14" t="str">
-        <v/>
-      </c>
-      <c r="J14" t="str">
-        <v>x</v>
-      </c>
-      <c r="K14" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Beveiligingssysteem</v>
-      </c>
-      <c r="B15" t="str">
-        <v>11236</v>
-      </c>
-      <c r="C15" t="str">
-        <v/>
-      </c>
-      <c r="D15" t="str">
-        <v/>
-      </c>
-      <c r="E15" t="str">
-        <v/>
-      </c>
-      <c r="F15" t="str">
-        <v>06 Beveiligingssysteem          11236</v>
-      </c>
-      <c r="G15" t="str">
-        <v>x</v>
-      </c>
-      <c r="H15" t="str">
-        <v/>
-      </c>
-      <c r="I15" t="str">
-        <v>x</v>
-      </c>
-      <c r="J15" t="str">
-        <v/>
-      </c>
-      <c r="K15" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v/>
-      </c>
-      <c r="B16" t="str">
-        <v>11236</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E16" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F16" t="str">
-        <v/>
-      </c>
-      <c r="G16" t="str">
-        <v>x</v>
-      </c>
-      <c r="H16" t="str">
-        <v/>
-      </c>
-      <c r="I16" t="str">
-        <v>x</v>
-      </c>
-      <c r="J16" t="str">
-        <v/>
-      </c>
-      <c r="K16" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Gebruik</v>
-      </c>
-      <c r="B17" t="str">
-        <v>10260</v>
-      </c>
-      <c r="C17" t="str">
-        <v/>
-      </c>
-      <c r="D17" t="str">
-        <v/>
-      </c>
-      <c r="E17" t="str">
-        <v/>
-      </c>
-      <c r="F17" t="str">
-        <v>07 Gebruik                      10260</v>
-      </c>
-      <c r="G17" t="str">
-        <v>x</v>
-      </c>
-      <c r="H17" t="str">
-        <v>x</v>
-      </c>
-      <c r="I17" t="str">
-        <v>x</v>
-      </c>
-      <c r="J17" t="str">
-        <v>x</v>
-      </c>
-      <c r="K17" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v/>
-      </c>
-      <c r="B18" t="str">
-        <v>10260</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D18" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E18" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F18" t="str">
-        <v/>
-      </c>
-      <c r="G18" t="str">
-        <v>x</v>
-      </c>
-      <c r="H18" t="str">
-        <v>x</v>
-      </c>
-      <c r="I18" t="str">
-        <v>x</v>
-      </c>
-      <c r="J18" t="str">
-        <v>x</v>
-      </c>
-      <c r="K18" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Kilometrage</v>
-      </c>
-      <c r="B19" t="str">
-        <v>10036</v>
-      </c>
-      <c r="C19" t="str">
-        <v/>
-      </c>
-      <c r="D19" t="str">
-        <v/>
-      </c>
-      <c r="E19" t="str">
-        <v/>
-      </c>
-      <c r="F19" t="str">
-        <v>08 Kilometrage                  10036</v>
-      </c>
-      <c r="G19" t="str">
-        <v>x</v>
-      </c>
-      <c r="H19" t="str">
-        <v>x</v>
-      </c>
-      <c r="I19" t="str">
-        <v>x</v>
-      </c>
-      <c r="J19" t="str">
-        <v>x</v>
-      </c>
-      <c r="K19" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v/>
-      </c>
-      <c r="B20" t="str">
-        <v>10036</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D20" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E20" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F20" t="str">
-        <v/>
-      </c>
-      <c r="G20" t="str">
-        <v>x</v>
-      </c>
-      <c r="H20" t="str">
-        <v>x</v>
-      </c>
-      <c r="I20" t="str">
-        <v>x</v>
-      </c>
-      <c r="J20" t="str">
-        <v>x</v>
-      </c>
-      <c r="K20" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Nieuwwaarderegeling</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Meeverzekerd voor 12398 maanden</v>
-      </c>
-      <c r="C21" t="str">
-        <v/>
-      </c>
-      <c r="D21" t="str">
-        <v/>
-      </c>
-      <c r="E21" t="str">
-        <v/>
-      </c>
-      <c r="F21" t="str">
-        <v>08 Nieuwwaarderegeling          Meeverzekerd voor 12398 maanden</v>
-      </c>
-      <c r="G21" t="str">
-        <v/>
-      </c>
-      <c r="H21" t="str">
-        <v/>
-      </c>
-      <c r="I21" t="str">
-        <v/>
-      </c>
-      <c r="J21" t="str">
-        <v/>
-      </c>
-      <c r="K21" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v/>
-      </c>
-      <c r="B22" t="str">
-        <v>12398</v>
-      </c>
-      <c r="C22" t="str">
-        <v>Getal exclusief decimalen</v>
-      </c>
-      <c r="D22" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E22" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F22" t="str">
-        <v/>
-      </c>
-      <c r="G22" t="str">
-        <v/>
-      </c>
-      <c r="H22" t="str">
-        <v/>
-      </c>
-      <c r="I22" t="str">
-        <v/>
-      </c>
-      <c r="J22" t="str">
-        <v/>
-      </c>
-      <c r="K22" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Regelmatige bestuurder</v>
-      </c>
-      <c r="B23" t="str">
-        <v>11213 11214 11212</v>
-      </c>
-      <c r="C23" t="str">
-        <v/>
-      </c>
-      <c r="D23" t="str">
-        <v/>
-      </c>
-      <c r="E23" t="str">
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <v>09 Regelmatige bestuurder       11213 11214 11212</v>
-      </c>
-      <c r="G23" t="str">
-        <v>x</v>
-      </c>
-      <c r="H23" t="str">
-        <v/>
-      </c>
-      <c r="I23" t="str">
-        <v/>
-      </c>
-      <c r="J23" t="str">
-        <v/>
-      </c>
-      <c r="K23" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v/>
-      </c>
-      <c r="B24" t="str">
-        <v>11213</v>
-      </c>
-      <c r="C24" t="str">
-        <v/>
-      </c>
-      <c r="D24" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E24" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F24" t="str">
-        <v/>
-      </c>
-      <c r="G24" t="str">
-        <v>x</v>
-      </c>
-      <c r="H24" t="str">
-        <v/>
-      </c>
-      <c r="I24" t="str">
-        <v/>
-      </c>
-      <c r="J24" t="str">
-        <v/>
-      </c>
-      <c r="K24" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v/>
-      </c>
-      <c r="B25" t="str">
-        <v>11214</v>
-      </c>
-      <c r="C25" t="str">
-        <v/>
-      </c>
-      <c r="D25" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E25" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F25" t="str">
-        <v/>
-      </c>
-      <c r="G25" t="str">
-        <v>x</v>
-      </c>
-      <c r="H25" t="str">
-        <v/>
-      </c>
-      <c r="I25" t="str">
-        <v/>
-      </c>
-      <c r="J25" t="str">
-        <v/>
-      </c>
-      <c r="K25" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v/>
-      </c>
-      <c r="B26" t="str">
-        <v>11212</v>
-      </c>
-      <c r="C26" t="str">
-        <v/>
-      </c>
-      <c r="D26" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E26" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F26" t="str">
-        <v/>
-      </c>
-      <c r="G26" t="str">
-        <v>x</v>
-      </c>
-      <c r="H26" t="str">
-        <v/>
-      </c>
-      <c r="I26" t="str">
-        <v/>
-      </c>
-      <c r="J26" t="str">
-        <v/>
-      </c>
-      <c r="K26" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Verhuur meeverzekerd</v>
-      </c>
-      <c r="B27" t="str">
-        <v>11674</v>
-      </c>
-      <c r="C27" t="str">
-        <v/>
-      </c>
-      <c r="D27" t="str">
-        <v/>
-      </c>
-      <c r="E27" t="str">
-        <v/>
-      </c>
-      <c r="F27" t="str">
-        <v>10 Verhuur meeverzekerd         11674</v>
-      </c>
-      <c r="G27" t="str">
-        <v/>
-      </c>
-      <c r="H27" t="str">
-        <v>x</v>
-      </c>
-      <c r="I27" t="str">
-        <v/>
-      </c>
-      <c r="J27" t="str">
-        <v/>
-      </c>
-      <c r="K27" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v/>
-      </c>
-      <c r="B28" t="str">
-        <v>11674</v>
-      </c>
-      <c r="C28" t="str">
-        <v/>
-      </c>
-      <c r="D28" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E28" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F28" t="str">
-        <v/>
-      </c>
-      <c r="G28" t="str">
-        <v/>
-      </c>
-      <c r="H28" t="str">
-        <v>x</v>
-      </c>
-      <c r="I28" t="str">
-        <v/>
-      </c>
-      <c r="J28" t="str">
-        <v/>
-      </c>
-      <c r="K28" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>Zuivere schadevrije jaren</v>
-      </c>
-      <c r="B29" t="str">
-        <v>13218</v>
-      </c>
-      <c r="C29" t="str">
-        <v/>
-      </c>
-      <c r="D29" t="str">
-        <v/>
-      </c>
-      <c r="E29" t="str">
-        <v/>
-      </c>
-      <c r="F29" t="str">
-        <v>10 Zuivere schadevrije jaren    13218</v>
-      </c>
-      <c r="G29" t="str">
-        <v>x</v>
-      </c>
-      <c r="H29" t="str">
-        <v>x</v>
-      </c>
-      <c r="I29" t="str">
-        <v>x</v>
-      </c>
-      <c r="J29" t="str">
-        <v>x</v>
-      </c>
-      <c r="K29" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v/>
-      </c>
-      <c r="B30" t="str">
-        <v>13218</v>
-      </c>
-      <c r="C30" t="str">
-        <v>Getal exclusief decimalen</v>
-      </c>
-      <c r="D30" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E30" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F30" t="str">
-        <v/>
-      </c>
-      <c r="G30" t="str">
-        <v>x</v>
-      </c>
-      <c r="H30" t="str">
-        <v>x</v>
-      </c>
-      <c r="I30" t="str">
-        <v>x</v>
-      </c>
-      <c r="J30" t="str">
-        <v>x</v>
-      </c>
-      <c r="K30" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>Bonus/malus</v>
-      </c>
-      <c r="B31" t="str">
-        <v>Trede 10046 = 10050 %</v>
-      </c>
-      <c r="C31" t="str">
-        <v/>
-      </c>
-      <c r="D31" t="str">
-        <v/>
-      </c>
-      <c r="E31" t="str">
-        <v/>
-      </c>
-      <c r="F31" t="str">
-        <v>11 Bonus/malus                  Trede 10046 = 10050 %</v>
-      </c>
-      <c r="G31" t="str">
-        <v>x</v>
-      </c>
-      <c r="H31" t="str">
-        <v>x</v>
-      </c>
-      <c r="I31" t="str">
-        <v>x</v>
-      </c>
-      <c r="J31" t="str">
-        <v>x</v>
-      </c>
-      <c r="K31" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v/>
-      </c>
-      <c r="B32" t="str">
-        <v>10046</v>
-      </c>
-      <c r="C32" t="str">
-        <v/>
-      </c>
-      <c r="D32" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E32" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F32" t="str">
-        <v/>
-      </c>
-      <c r="G32" t="str">
-        <v>x</v>
-      </c>
-      <c r="H32" t="str">
-        <v>x</v>
-      </c>
-      <c r="I32" t="str">
-        <v>x</v>
-      </c>
-      <c r="J32" t="str">
-        <v>x</v>
-      </c>
-      <c r="K32" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v/>
-      </c>
-      <c r="B33" t="str">
-        <v>10050</v>
-      </c>
-      <c r="C33" t="str">
-        <v>Getal inclusief decimalen</v>
-      </c>
-      <c r="D33" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E33" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F33" t="str">
-        <v/>
-      </c>
-      <c r="G33" t="str">
-        <v>x</v>
-      </c>
-      <c r="H33" t="str">
-        <v>x</v>
-      </c>
-      <c r="I33" t="str">
-        <v>x</v>
-      </c>
-      <c r="J33" t="str">
-        <v>x</v>
-      </c>
-      <c r="K33" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>Extra/vrijwillig eigen risico</v>
-      </c>
-      <c r="B34" t="str">
-        <v>€ 11450</v>
-      </c>
-      <c r="C34" t="str">
-        <v/>
-      </c>
-      <c r="D34" t="str">
-        <v/>
-      </c>
-      <c r="E34" t="str">
-        <v/>
-      </c>
-      <c r="F34" t="str">
-        <v>11 Extra/vrijwillig eigen risico€ 11450</v>
-      </c>
-      <c r="G34" t="str">
-        <v/>
-      </c>
-      <c r="H34" t="str">
-        <v>x</v>
-      </c>
-      <c r="I34" t="str">
-        <v/>
-      </c>
-      <c r="J34" t="str">
-        <v/>
-      </c>
-      <c r="K34" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v/>
-      </c>
-      <c r="B35" t="str">
-        <v>11450</v>
-      </c>
-      <c r="C35" t="str">
-        <v>Getal inclusief decimalen</v>
-      </c>
-      <c r="D35" t="str">
-        <v>Rechts</v>
-      </c>
-      <c r="E35" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F35" t="str">
-        <v/>
-      </c>
-      <c r="G35" t="str">
-        <v/>
-      </c>
-      <c r="H35" t="str">
-        <v>x</v>
-      </c>
-      <c r="I35" t="str">
-        <v/>
-      </c>
-      <c r="J35" t="str">
-        <v/>
-      </c>
-      <c r="K35" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>Extra/vrijwillig eigen risico</v>
-      </c>
-      <c r="B36" t="str">
-        <v>€ 10043</v>
-      </c>
-      <c r="C36" t="str">
-        <v/>
-      </c>
-      <c r="D36" t="str">
-        <v/>
-      </c>
-      <c r="E36" t="str">
-        <v/>
-      </c>
-      <c r="F36" t="str">
-        <v>12 Extra/vrijwillig eigen risico€ 10043</v>
-      </c>
-      <c r="G36" t="str">
-        <v/>
-      </c>
-      <c r="H36" t="str">
-        <v/>
-      </c>
-      <c r="I36" t="str">
-        <v/>
-      </c>
-      <c r="J36" t="str">
-        <v/>
-      </c>
-      <c r="K36" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v/>
-      </c>
-      <c r="B37" t="str">
-        <v>10043</v>
-      </c>
-      <c r="C37" t="str">
-        <v>Getal inclusief decimalen</v>
-      </c>
-      <c r="D37" t="str">
-        <v>Rechts</v>
-      </c>
-      <c r="E37" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F37" t="str">
-        <v/>
-      </c>
-      <c r="G37" t="str">
-        <v/>
-      </c>
-      <c r="H37" t="str">
-        <v/>
-      </c>
-      <c r="I37" t="str">
-        <v/>
-      </c>
-      <c r="J37" t="str">
-        <v/>
-      </c>
-      <c r="K37" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>Nieuwwaarde 5 jaar</v>
-      </c>
-      <c r="B38" t="str">
-        <v>12348</v>
-      </c>
-      <c r="C38" t="str">
-        <v/>
-      </c>
-      <c r="D38" t="str">
-        <v/>
-      </c>
-      <c r="E38" t="str">
-        <v/>
-      </c>
-      <c r="F38" t="str">
-        <v>12 Nieuwwaarde 5 jaar           12348</v>
-      </c>
-      <c r="G38" t="str">
-        <v>x</v>
-      </c>
-      <c r="H38" t="str">
-        <v/>
-      </c>
-      <c r="I38" t="str">
-        <v>x</v>
-      </c>
-      <c r="J38" t="str">
-        <v/>
-      </c>
-      <c r="K38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v/>
-      </c>
-      <c r="B39" t="str">
-        <v>12348</v>
-      </c>
-      <c r="C39" t="str">
-        <v/>
-      </c>
-      <c r="D39" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E39" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F39" t="str">
-        <v/>
-      </c>
-      <c r="G39" t="str">
-        <v>x</v>
-      </c>
-      <c r="H39" t="str">
-        <v/>
-      </c>
-      <c r="I39" t="str">
-        <v>x</v>
-      </c>
-      <c r="J39" t="str">
-        <v/>
-      </c>
-      <c r="K39" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>Nieuwwaardetermijn</v>
-      </c>
-      <c r="B40" t="str">
-        <v>12353 jaar</v>
-      </c>
-      <c r="C40" t="str">
-        <v/>
-      </c>
-      <c r="D40" t="str">
-        <v/>
-      </c>
-      <c r="E40" t="str">
-        <v/>
-      </c>
-      <c r="F40" t="str">
-        <v>12 Nieuwwaardetermijn           12353 jaar</v>
-      </c>
-      <c r="G40" t="str">
-        <v/>
-      </c>
-      <c r="H40" t="str">
-        <v/>
-      </c>
-      <c r="I40" t="str">
-        <v/>
-      </c>
-      <c r="J40" t="str">
-        <v>x</v>
-      </c>
-      <c r="K40" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v/>
-      </c>
-      <c r="B41" t="str">
-        <v>12353</v>
-      </c>
-      <c r="C41" t="str">
-        <v>Getal exclusief decimalen</v>
-      </c>
-      <c r="D41" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E41" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F41" t="str">
-        <v/>
-      </c>
-      <c r="G41" t="str">
-        <v/>
-      </c>
-      <c r="H41" t="str">
-        <v/>
-      </c>
-      <c r="I41" t="str">
-        <v/>
-      </c>
-      <c r="J41" t="str">
-        <v>x</v>
-      </c>
-      <c r="K41" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>Extra's</v>
-      </c>
-      <c r="B42" t="str">
-        <v>€ 11239</v>
-      </c>
-      <c r="C42" t="str">
-        <v/>
-      </c>
-      <c r="D42" t="str">
-        <v/>
-      </c>
-      <c r="E42" t="str">
-        <v/>
-      </c>
-      <c r="F42" t="str">
-        <v>13 Extra's                      € 11239</v>
-      </c>
-      <c r="G42" t="str">
-        <v>x</v>
-      </c>
-      <c r="H42" t="str">
-        <v/>
-      </c>
-      <c r="I42" t="str">
-        <v/>
-      </c>
-      <c r="J42" t="str">
-        <v/>
-      </c>
-      <c r="K42" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v/>
-      </c>
-      <c r="B43" t="str">
-        <v>11239</v>
-      </c>
-      <c r="C43" t="str">
-        <v>Getal exclusief decimalen</v>
-      </c>
-      <c r="D43" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E43" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F43" t="str">
-        <v/>
-      </c>
-      <c r="G43" t="str">
-        <v>x</v>
-      </c>
-      <c r="H43" t="str">
-        <v/>
-      </c>
-      <c r="I43" t="str">
-        <v/>
-      </c>
-      <c r="J43" t="str">
-        <v/>
-      </c>
-      <c r="K43" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>Eigen risico</v>
-      </c>
-      <c r="B44" t="str">
-        <v>€ 10043</v>
-      </c>
-      <c r="C44" t="str">
-        <v/>
-      </c>
-      <c r="D44" t="str">
-        <v/>
-      </c>
-      <c r="E44" t="str">
-        <v/>
-      </c>
-      <c r="F44" t="str">
-        <v>14 Eigen risico                 € 10043</v>
-      </c>
-      <c r="G44" t="str">
-        <v>x</v>
-      </c>
-      <c r="H44" t="str">
-        <v/>
-      </c>
-      <c r="I44" t="str">
-        <v>x</v>
-      </c>
-      <c r="J44" t="str">
-        <v>x</v>
-      </c>
-      <c r="K44" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v/>
-      </c>
-      <c r="B45" t="str">
-        <v>10043</v>
-      </c>
-      <c r="C45" t="str">
-        <v>Getal inclusief decimalen</v>
-      </c>
-      <c r="D45" t="str">
-        <v>Rechts</v>
-      </c>
-      <c r="E45" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F45" t="str">
-        <v/>
-      </c>
-      <c r="G45" t="str">
-        <v>x</v>
-      </c>
-      <c r="H45" t="str">
-        <v/>
-      </c>
-      <c r="I45" t="str">
-        <v>x</v>
-      </c>
-      <c r="J45" t="str">
-        <v>x</v>
-      </c>
-      <c r="K45" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>Verzekerde rubrieken</v>
-      </c>
-      <c r="B46" t="str">
-        <v xml:space="preserve">                        Verzekerd bedrag</v>
-      </c>
-      <c r="C46" t="str">
-        <v/>
-      </c>
-      <c r="D46" t="str">
-        <v/>
-      </c>
-      <c r="E46" t="str">
-        <v/>
-      </c>
-      <c r="F46" t="str">
-        <v>16 Verzekerde rubrieken                             Verzekerd bedrag</v>
-      </c>
-      <c r="G46" t="str">
-        <v>x</v>
-      </c>
-      <c r="H46" t="str">
-        <v>x</v>
-      </c>
-      <c r="I46" t="str">
-        <v>x</v>
-      </c>
-      <c r="J46" t="str">
-        <v>x</v>
-      </c>
-      <c r="K46" t="str">
-        <v>x</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K46"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
@@ -2063,19 +439,19 @@
         <v>P311</v>
       </c>
       <c r="I1" t="str">
+        <v>P313</v>
+      </c>
+      <c r="J1" t="str">
         <v>P315</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
+        <v>P383</v>
+      </c>
+      <c r="L1" t="str">
         <v>P379</v>
       </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
         <v>P384</v>
-      </c>
-      <c r="L1" t="str">
-        <v>P313</v>
-      </c>
-      <c r="M1" t="str">
-        <v>P383</v>
       </c>
     </row>
     <row r="2">
@@ -2107,13 +483,13 @@
         <v>x</v>
       </c>
       <c r="J2" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K2" t="str">
         <v>x</v>
       </c>
       <c r="L2" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M2" t="str">
         <v>x</v>
@@ -2148,13 +524,13 @@
         <v>x</v>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K3" t="str">
         <v>x</v>
       </c>
       <c r="L3" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M3" t="str">
         <v>x</v>
@@ -2189,13 +565,13 @@
         <v/>
       </c>
       <c r="J4" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K4" t="str">
         <v/>
       </c>
       <c r="L4" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M4" t="str">
         <v/>
@@ -2350,10 +726,10 @@
         <v/>
       </c>
       <c r="I8" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J8" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K8" t="str">
         <v/>
@@ -2391,10 +767,10 @@
         <v/>
       </c>
       <c r="I9" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J9" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K9" t="str">
         <v/>
@@ -2432,10 +808,10 @@
         <v/>
       </c>
       <c r="I10" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J10" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K10" t="str">
         <v/>
@@ -2473,10 +849,10 @@
         <v>x</v>
       </c>
       <c r="I11" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J11" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K11" t="str">
         <v/>
@@ -2514,10 +890,10 @@
         <v>x</v>
       </c>
       <c r="I12" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J12" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K12" t="str">
         <v/>
@@ -2555,10 +931,10 @@
         <v>x</v>
       </c>
       <c r="I13" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J13" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K13" t="str">
         <v/>
@@ -2678,10 +1054,10 @@
         <v>x</v>
       </c>
       <c r="I16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J16" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K16" t="str">
         <v>x</v>
@@ -2719,10 +1095,10 @@
         <v>x</v>
       </c>
       <c r="I17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K17" t="str">
         <v>x</v>
@@ -2760,10 +1136,10 @@
         <v/>
       </c>
       <c r="I18" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K18" t="str">
         <v/>
@@ -2801,10 +1177,10 @@
         <v/>
       </c>
       <c r="I19" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J19" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K19" t="str">
         <v/>
@@ -2842,10 +1218,10 @@
         <v/>
       </c>
       <c r="I20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J20" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K20" t="str">
         <v/>
@@ -2883,10 +1259,10 @@
         <v/>
       </c>
       <c r="I21" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K21" t="str">
         <v/>
@@ -2924,10 +1300,10 @@
         <v/>
       </c>
       <c r="I22" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K22" t="str">
         <v/>
@@ -3088,10 +1464,10 @@
         <v/>
       </c>
       <c r="I26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J26" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K26" t="str">
         <v/>
@@ -3129,10 +1505,10 @@
         <v/>
       </c>
       <c r="I27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K27" t="str">
         <v/>
@@ -3170,10 +1546,10 @@
         <v/>
       </c>
       <c r="I28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K28" t="str">
         <v/>
@@ -3211,10 +1587,10 @@
         <v/>
       </c>
       <c r="I29" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K29" t="str">
         <v/>
@@ -3293,10 +1669,10 @@
         <v/>
       </c>
       <c r="I31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K31" t="str">
         <v/>
@@ -3334,10 +1710,10 @@
         <v/>
       </c>
       <c r="I32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K32" t="str">
         <v/>
@@ -3352,6 +1728,802 @@
   </sheetData>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:M32"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>omschrijving</v>
+      </c>
+      <c r="B1" t="str">
+        <v>inhoud</v>
+      </c>
+      <c r="C1" t="str">
+        <v>weergave</v>
+      </c>
+      <c r="D1" t="str">
+        <v>uitlijnen</v>
+      </c>
+      <c r="E1" t="str">
+        <v>regel verwijderen</v>
+      </c>
+      <c r="F1" t="str">
+        <v>regel template</v>
+      </c>
+      <c r="G1" t="str">
+        <v>P375</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Soort verzekering</v>
+      </c>
+      <c r="B2" t="str">
+        <v>10142</v>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>02 Soort verzekering            10142</v>
+      </c>
+      <c r="G2" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v>10142</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E3" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Merk en type</v>
+      </c>
+      <c r="B4" t="str">
+        <v>10218 10219 10220</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v>03 Merk en type                 10218 10219 10220</v>
+      </c>
+      <c r="G4" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <v>10218</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E5" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v>10219</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E6" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v>10220</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E7" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Kenteken</v>
+      </c>
+      <c r="B8" t="str">
+        <v>10033</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>04 Kenteken                     10033</v>
+      </c>
+      <c r="G8" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>10033</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E9" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Meldcode</v>
+      </c>
+      <c r="B10" t="str">
+        <v>10112</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>05 Meldcode                     10112</v>
+      </c>
+      <c r="G10" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v>10112</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E11" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Beveiliging</v>
+      </c>
+      <c r="B12" t="str">
+        <v>11236</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v>06 Beveiliging                  11236</v>
+      </c>
+      <c r="G12" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v>11236</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E13" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Gebruik</v>
+      </c>
+      <c r="B14" t="str">
+        <v>10260</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v>07 Gebruik                      10260</v>
+      </c>
+      <c r="G14" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v>10260</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E15" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Kilometrage</v>
+      </c>
+      <c r="B16" t="str">
+        <v>10036</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v>08 Kilometrage                  10036</v>
+      </c>
+      <c r="G16" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v>10036</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E17" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Zuivere schadevrije jaren</v>
+      </c>
+      <c r="B18" t="str">
+        <v>13218</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v>09 Zuivere schadevrije jaren    13218</v>
+      </c>
+      <c r="G18" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v>13218</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E19" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Bonus/malus</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Trede 10046 = 10050 %</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v>10 Bonus/malus                  Trede 10046 = 10050 %</v>
+      </c>
+      <c r="G20" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v>10046</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E21" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v>10050</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E22" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Nieuwwaarderegeling</v>
+      </c>
+      <c r="B23" t="str">
+        <v>12398 maanden</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v>11 Nieuwwaarderegeling          12398 maanden</v>
+      </c>
+      <c r="G23" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v>12398</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E24" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Aankoopwaarderegeling</v>
+      </c>
+      <c r="B25" t="str">
+        <v>12399 maanden</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v>12 Aankoopwaarderegeling        12399 maanden</v>
+      </c>
+      <c r="G25" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v>12399</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E26" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Eigen risico Casco</v>
+      </c>
+      <c r="B27" t="str">
+        <v>€ 10043</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v>13 Eigen risico Casco           € 10043</v>
+      </c>
+      <c r="G27" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <v>10043</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E28" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Militair</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Ja                                                 81005</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v>14 Militair                     Ja                                                 81005</v>
+      </c>
+      <c r="G29" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v>81005</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E30" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Lid van de vakbond</v>
+      </c>
+      <c r="B31" t="str">
+        <v>80991                                                  81005</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v>15 Lid van de vakbond           80991                                                  81005</v>
+      </c>
+      <c r="G31" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <v>80991</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E32" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v>81005</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E33" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Verzekerde rubrieken</v>
+      </c>
+      <c r="B34" t="str">
+        <v xml:space="preserve">                        Verzekerd bedrag</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v>17 Verzekerde rubrieken                             Verzekerd bedrag</v>
+      </c>
+      <c r="G34" t="str">
+        <v>x</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G34"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3386,16 +2558,16 @@
         <v>P302</v>
       </c>
       <c r="H1" t="str">
+        <v>P352</v>
+      </c>
+      <c r="I1" t="str">
         <v>P353</v>
       </c>
-      <c r="I1" t="str">
-        <v>P352</v>
-      </c>
       <c r="J1" t="str">
+        <v>P368</v>
+      </c>
+      <c r="K1" t="str">
         <v>P382</v>
-      </c>
-      <c r="K1" t="str">
-        <v>P368</v>
       </c>
       <c r="L1" t="str">
         <v>P383</v>
@@ -3956,10 +3128,10 @@
         <v/>
       </c>
       <c r="H16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I16" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J16" t="str">
         <v/>
@@ -3994,10 +3166,10 @@
         <v/>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J17" t="str">
         <v/>
@@ -4032,16 +3204,16 @@
         <v>x</v>
       </c>
       <c r="H18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I18" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K18" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L18" t="str">
         <v>x</v>
@@ -4070,16 +3242,16 @@
         <v>x</v>
       </c>
       <c r="H19" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I19" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J19" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K19" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L19" t="str">
         <v>x</v>
@@ -4108,16 +3280,16 @@
         <v>x</v>
       </c>
       <c r="H20" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J20" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L20" t="str">
         <v>x</v>
@@ -4146,16 +3318,16 @@
         <v>x</v>
       </c>
       <c r="H21" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J21" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L21" t="str">
         <v>x</v>
@@ -4184,16 +3356,16 @@
         <v>x</v>
       </c>
       <c r="H22" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J22" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L22" t="str">
         <v>x</v>
@@ -4222,16 +3394,16 @@
         <v>x</v>
       </c>
       <c r="H23" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I23" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J23" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K23" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L23" t="str">
         <v>x</v>
@@ -4260,16 +3432,16 @@
         <v>x</v>
       </c>
       <c r="H24" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I24" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J24" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K24" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L24" t="str">
         <v>x</v>
@@ -4298,16 +3470,16 @@
         <v>x</v>
       </c>
       <c r="H25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L25" t="str">
         <v>x</v>
@@ -4336,16 +3508,16 @@
         <v>x</v>
       </c>
       <c r="H26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I26" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K26" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L26" t="str">
         <v>x</v>
@@ -4374,16 +3546,16 @@
         <v>x</v>
       </c>
       <c r="H27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L27" t="str">
         <v>x</v>
@@ -4412,16 +3584,16 @@
         <v>x</v>
       </c>
       <c r="H28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L28" t="str">
         <v>x</v>
@@ -4578,10 +3750,10 @@
         <v>P306</v>
       </c>
       <c r="H1" t="str">
+        <v>P302</v>
+      </c>
+      <c r="I1" t="str">
         <v>P311</v>
-      </c>
-      <c r="I1" t="str">
-        <v>P302</v>
       </c>
       <c r="J1" t="str">
         <v>P313</v>
@@ -4593,13 +3765,13 @@
         <v>P357</v>
       </c>
       <c r="M1" t="str">
+        <v>P379</v>
+      </c>
+      <c r="N1" t="str">
+        <v>P383</v>
+      </c>
+      <c r="O1" t="str">
         <v>P384</v>
-      </c>
-      <c r="N1" t="str">
-        <v>P379</v>
-      </c>
-      <c r="O1" t="str">
-        <v>P383</v>
       </c>
     </row>
     <row r="2">
@@ -4640,10 +3812,10 @@
         <v>x</v>
       </c>
       <c r="M2" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N2" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O2" t="str">
         <v>x</v>
@@ -4687,10 +3859,10 @@
         <v>x</v>
       </c>
       <c r="M3" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N3" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O3" t="str">
         <v>x</v>
@@ -4734,10 +3906,10 @@
         <v/>
       </c>
       <c r="M4" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N4" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O4" t="str">
         <v/>
@@ -5424,10 +4596,10 @@
         <v/>
       </c>
       <c r="H19" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I19" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J19" t="str">
         <v/>
@@ -5471,10 +4643,10 @@
         <v/>
       </c>
       <c r="H20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I20" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J20" t="str">
         <v/>
@@ -5518,10 +4690,10 @@
         <v/>
       </c>
       <c r="H21" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J21" t="str">
         <v/>
@@ -5565,10 +4737,10 @@
         <v/>
       </c>
       <c r="H22" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J22" t="str">
         <v/>
@@ -5612,10 +4784,10 @@
         <v/>
       </c>
       <c r="H23" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I23" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J23" t="str">
         <v/>
@@ -6003,10 +5175,10 @@
         <v/>
       </c>
       <c r="M31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O31" t="str">
         <v/>
@@ -6050,10 +5222,10 @@
         <v/>
       </c>
       <c r="M32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O32" t="str">
         <v/>
@@ -6100,10 +5272,10 @@
         <v/>
       </c>
       <c r="N33" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O33" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="34">
@@ -6147,10 +5319,10 @@
         <v/>
       </c>
       <c r="N34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O34" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="35">
@@ -6194,10 +5366,10 @@
         <v>x</v>
       </c>
       <c r="N35" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O35" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="36">
@@ -6241,10 +5413,10 @@
         <v>x</v>
       </c>
       <c r="N36" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O36" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="37">
@@ -6364,10 +5536,10 @@
         <v/>
       </c>
       <c r="H39" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I39" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J39" t="str">
         <v/>
@@ -6382,10 +5554,10 @@
         <v/>
       </c>
       <c r="N39" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O39" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="40">
@@ -6411,10 +5583,10 @@
         <v/>
       </c>
       <c r="H40" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J40" t="str">
         <v/>
@@ -6429,10 +5601,10 @@
         <v/>
       </c>
       <c r="N40" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O40" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="41">
@@ -6570,10 +5742,10 @@
         <v>x</v>
       </c>
       <c r="N43" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O43" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="44">
@@ -6617,10 +5789,10 @@
         <v>x</v>
       </c>
       <c r="N44" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O44" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="45">
@@ -6646,10 +5818,10 @@
         <v/>
       </c>
       <c r="H45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I45" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J45" t="str">
         <v/>
@@ -6664,10 +5836,10 @@
         <v/>
       </c>
       <c r="N45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O45" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="46">
@@ -6693,10 +5865,10 @@
         <v/>
       </c>
       <c r="H46" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I46" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J46" t="str">
         <v/>
@@ -6711,10 +5883,10 @@
         <v/>
       </c>
       <c r="N46" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O46" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="47">
@@ -6758,10 +5930,10 @@
         <v/>
       </c>
       <c r="N47" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O47" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="48">
@@ -6805,10 +5977,10 @@
         <v/>
       </c>
       <c r="N48" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O48" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="49">
@@ -6852,10 +6024,10 @@
         <v>x</v>
       </c>
       <c r="N49" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O49" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="50">
@@ -6899,10 +6071,10 @@
         <v>x</v>
       </c>
       <c r="N50" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O50" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="51">
@@ -6928,10 +6100,10 @@
         <v/>
       </c>
       <c r="H51" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I51" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J51" t="str">
         <v/>
@@ -6975,10 +6147,10 @@
         <v/>
       </c>
       <c r="H52" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I52" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J52" t="str">
         <v/>
@@ -9014,10 +8186,10 @@
         <v>P302</v>
       </c>
       <c r="H1" t="str">
+        <v>P306</v>
+      </c>
+      <c r="I1" t="str">
         <v>P311</v>
-      </c>
-      <c r="I1" t="str">
-        <v>P306</v>
       </c>
       <c r="J1" t="str">
         <v>P313</v>
@@ -9032,10 +8204,10 @@
         <v>P379</v>
       </c>
       <c r="N1" t="str">
+        <v>P383</v>
+      </c>
+      <c r="O1" t="str">
         <v>P382</v>
-      </c>
-      <c r="O1" t="str">
-        <v>P383</v>
       </c>
       <c r="P1" t="str">
         <v>P384</v>
@@ -9614,10 +8786,10 @@
         <v/>
       </c>
       <c r="H13" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I13" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J13" t="str">
         <v>x</v>
@@ -9664,10 +8836,10 @@
         <v/>
       </c>
       <c r="H14" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I14" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J14" t="str">
         <v>x</v>
@@ -9714,10 +8886,10 @@
         <v/>
       </c>
       <c r="H15" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J15" t="str">
         <v/>
@@ -9764,10 +8936,10 @@
         <v/>
       </c>
       <c r="H16" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J16" t="str">
         <v/>
@@ -9832,10 +9004,10 @@
         <v/>
       </c>
       <c r="N17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P17" t="str">
         <v/>
@@ -9882,10 +9054,10 @@
         <v/>
       </c>
       <c r="N18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O18" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P18" t="str">
         <v/>
@@ -10132,10 +9304,10 @@
         <v/>
       </c>
       <c r="N23" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O23" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P23" t="str">
         <v/>
@@ -10182,10 +9354,10 @@
         <v/>
       </c>
       <c r="N24" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O24" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P24" t="str">
         <v/>
@@ -10232,10 +9404,10 @@
         <v/>
       </c>
       <c r="N25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P25" t="str">
         <v/>
@@ -10364,10 +9536,10 @@
         <v/>
       </c>
       <c r="H28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J28" t="str">
         <v/>
@@ -10382,10 +9554,10 @@
         <v/>
       </c>
       <c r="N28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P28" t="str">
         <v/>
@@ -10414,10 +9586,10 @@
         <v/>
       </c>
       <c r="H29" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J29" t="str">
         <v/>
@@ -10432,10 +9604,10 @@
         <v/>
       </c>
       <c r="N29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O29" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P29" t="str">
         <v/>
@@ -10714,10 +9886,10 @@
         <v/>
       </c>
       <c r="H35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I35" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J35" t="str">
         <v/>
@@ -10764,10 +9936,10 @@
         <v/>
       </c>
       <c r="H36" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I36" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J36" t="str">
         <v/>
@@ -11214,10 +10386,10 @@
         <v/>
       </c>
       <c r="H45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I45" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J45" t="str">
         <v/>
@@ -11232,10 +10404,10 @@
         <v/>
       </c>
       <c r="N45" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P45" t="str">
         <v/>
@@ -11264,10 +10436,10 @@
         <v/>
       </c>
       <c r="H46" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I46" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J46" t="str">
         <v/>
@@ -11282,10 +10454,10 @@
         <v/>
       </c>
       <c r="N46" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O46" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P46" t="str">
         <v/>
@@ -11314,10 +10486,10 @@
         <v>x</v>
       </c>
       <c r="H47" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I47" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J47" t="str">
         <v>x</v>
@@ -11332,10 +10504,10 @@
         <v>x</v>
       </c>
       <c r="N47" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O47" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P47" t="str">
         <v>x</v>
@@ -11364,10 +10536,10 @@
         <v>x</v>
       </c>
       <c r="H48" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I48" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J48" t="str">
         <v>x</v>
@@ -11382,10 +10554,10 @@
         <v>x</v>
       </c>
       <c r="N48" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O48" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P48" t="str">
         <v>x</v>
@@ -11414,10 +10586,10 @@
         <v>x</v>
       </c>
       <c r="H49" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I49" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J49" t="str">
         <v>x</v>
@@ -11432,10 +10604,10 @@
         <v>x</v>
       </c>
       <c r="N49" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O49" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P49" t="str">
         <v>x</v>
@@ -11681,19 +10853,19 @@
         <v>P306</v>
       </c>
       <c r="I1" t="str">
+        <v>P313</v>
+      </c>
+      <c r="J1" t="str">
         <v>P352</v>
-      </c>
-      <c r="J1" t="str">
-        <v>P313</v>
       </c>
       <c r="K1" t="str">
         <v>P353</v>
       </c>
       <c r="L1" t="str">
+        <v>P357</v>
+      </c>
+      <c r="M1" t="str">
         <v>P379</v>
-      </c>
-      <c r="M1" t="str">
-        <v>P357</v>
       </c>
       <c r="N1" t="str">
         <v>P384</v>
@@ -11725,19 +10897,19 @@
         <v/>
       </c>
       <c r="I2" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J2" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K2" t="str">
         <v/>
       </c>
       <c r="L2" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M2" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N2" t="str">
         <v>x</v>
@@ -11769,19 +10941,19 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J3" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K3" t="str">
         <v/>
       </c>
       <c r="L3" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M3" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N3" t="str">
         <v>x</v>
@@ -11857,10 +11029,10 @@
         <v/>
       </c>
       <c r="I5" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K5" t="str">
         <v/>
@@ -11910,10 +11082,10 @@
         <v/>
       </c>
       <c r="L6" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M6" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N6" t="str">
         <v/>
@@ -12385,19 +11557,19 @@
         <v>x</v>
       </c>
       <c r="I17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K17" t="str">
         <v>x</v>
       </c>
       <c r="L17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N17" t="str">
         <v>x</v>
@@ -12429,19 +11601,19 @@
         <v>x</v>
       </c>
       <c r="I18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J18" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K18" t="str">
         <v>x</v>
       </c>
       <c r="L18" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N18" t="str">
         <v>x</v>
@@ -12693,19 +11865,19 @@
         <v/>
       </c>
       <c r="I24" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J24" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K24" t="str">
         <v/>
       </c>
       <c r="L24" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M24" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N24" t="str">
         <v>x</v>
@@ -12737,19 +11909,19 @@
         <v/>
       </c>
       <c r="I25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K25" t="str">
         <v/>
       </c>
       <c r="L25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N25" t="str">
         <v>x</v>
@@ -12790,10 +11962,10 @@
         <v>x</v>
       </c>
       <c r="L26" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N26" t="str">
         <v>x</v>
@@ -12834,10 +12006,10 @@
         <v>x</v>
       </c>
       <c r="L27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N27" t="str">
         <v>x</v>
@@ -12878,10 +12050,10 @@
         <v>x</v>
       </c>
       <c r="L28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N28" t="str">
         <v>x</v>
@@ -13010,10 +12182,10 @@
         <v/>
       </c>
       <c r="L31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N31" t="str">
         <v/>
@@ -13054,10 +12226,10 @@
         <v/>
       </c>
       <c r="L32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N32" t="str">
         <v/>
@@ -13089,10 +12261,10 @@
         <v/>
       </c>
       <c r="I33" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J33" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K33" t="str">
         <v/>
@@ -13133,10 +12305,10 @@
         <v/>
       </c>
       <c r="I34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J34" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K34" t="str">
         <v/>
@@ -13177,10 +12349,10 @@
         <v/>
       </c>
       <c r="I35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J35" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K35" t="str">
         <v/>
@@ -13221,19 +12393,19 @@
         <v/>
       </c>
       <c r="I36" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J36" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K36" t="str">
         <v/>
       </c>
       <c r="L36" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M36" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N36" t="str">
         <v>x</v>
@@ -13265,19 +12437,19 @@
         <v/>
       </c>
       <c r="I37" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J37" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K37" t="str">
         <v/>
       </c>
       <c r="L37" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M37" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N37" t="str">
         <v>x</v>
@@ -13397,19 +12569,19 @@
         <v/>
       </c>
       <c r="I40" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K40" t="str">
         <v/>
       </c>
       <c r="L40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M40" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N40" t="str">
         <v>x</v>
@@ -13441,19 +12613,19 @@
         <v/>
       </c>
       <c r="I41" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K41" t="str">
         <v/>
       </c>
       <c r="L41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M41" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N41" t="str">
         <v>x</v>
@@ -13626,10 +12798,10 @@
         <v>x</v>
       </c>
       <c r="L45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M45" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N45" t="str">
         <v/>
@@ -13644,7 +12816,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -13669,7 +12841,7 @@
         <v>regel template</v>
       </c>
       <c r="G1" t="str">
-        <v>P359</v>
+        <v>P379</v>
       </c>
     </row>
     <row r="2">
@@ -13677,7 +12849,7 @@
         <v>Soort verzekering</v>
       </c>
       <c r="B2" t="str">
-        <v>10142</v>
+        <v>VvAA paardentrailerverzekering</v>
       </c>
       <c r="C2" t="str">
         <v/>
@@ -13689,7 +12861,7 @@
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>02 Soort verzekering            10142</v>
+        <v>02 Soort verzekering            VvAA paardentrailerverzekering</v>
       </c>
       <c r="G2" t="str">
         <v>x</v>
@@ -13697,22 +12869,22 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v/>
+        <v>Merk en type</v>
       </c>
       <c r="B3" t="str">
-        <v>10142</v>
+        <v>11493 11495</v>
       </c>
       <c r="C3" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>03 Merk en type                 11493 11495</v>
       </c>
       <c r="G3" t="str">
         <v>x</v>
@@ -13720,22 +12892,22 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Soort recreatieverblijf</v>
+        <v/>
       </c>
       <c r="B4" t="str">
-        <v>80913</v>
+        <v>11493</v>
       </c>
       <c r="C4" t="str">
         <v/>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F4" t="str">
-        <v>03 Soort recreatieverblijf      80913</v>
+        <v/>
       </c>
       <c r="G4" t="str">
         <v>x</v>
@@ -13746,10 +12918,10 @@
         <v/>
       </c>
       <c r="B5" t="str">
-        <v>80913</v>
+        <v>11495</v>
       </c>
       <c r="C5" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D5" t="str">
         <v>Links</v>
@@ -13766,10 +12938,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Merk en type</v>
+        <v>Chassisnummer</v>
       </c>
       <c r="B6" t="str">
-        <v>10218 10219 10220</v>
+        <v>11491</v>
       </c>
       <c r="C6" t="str">
         <v/>
@@ -13781,7 +12953,7 @@
         <v/>
       </c>
       <c r="F6" t="str">
-        <v>04 Merk en type                 10218 10219 10220</v>
+        <v>04 Chassisnummer                11491</v>
       </c>
       <c r="G6" t="str">
         <v>x</v>
@@ -13792,7 +12964,7 @@
         <v/>
       </c>
       <c r="B7" t="str">
-        <v>10218</v>
+        <v>11491</v>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -13812,22 +12984,22 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v/>
+        <v>Particuliere verhuur</v>
       </c>
       <c r="B8" t="str">
-        <v>10219</v>
+        <v>13698</v>
       </c>
       <c r="C8" t="str">
         <v/>
       </c>
       <c r="D8" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F8" t="str">
-        <v/>
+        <v>05 Particuliere verhuur         13698</v>
       </c>
       <c r="G8" t="str">
         <v>x</v>
@@ -13838,7 +13010,7 @@
         <v/>
       </c>
       <c r="B9" t="str">
-        <v>10220</v>
+        <v>13698</v>
       </c>
       <c r="C9" t="str">
         <v/>
@@ -13847,7 +13019,7 @@
         <v>Links</v>
       </c>
       <c r="E9" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F9" t="str">
         <v/>
@@ -13858,10 +13030,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Kenteken</v>
+        <v>Verzekeringsgebied</v>
       </c>
       <c r="B10" t="str">
-        <v>11252</v>
+        <v>10246</v>
       </c>
       <c r="C10" t="str">
         <v/>
@@ -13873,7 +13045,7 @@
         <v/>
       </c>
       <c r="F10" t="str">
-        <v>05 Kenteken                     11252</v>
+        <v>06 Verzekeringsgebied           10246</v>
       </c>
       <c r="G10" t="str">
         <v>x</v>
@@ -13884,10 +13056,10 @@
         <v/>
       </c>
       <c r="B11" t="str">
-        <v>11252</v>
+        <v>10246</v>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D11" t="str">
         <v>Links</v>
@@ -13904,10 +13076,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Chassisnummer</v>
+        <v>Waardegarantietermijn</v>
       </c>
       <c r="B12" t="str">
-        <v>11491</v>
+        <v>12353 jaar</v>
       </c>
       <c r="C12" t="str">
         <v/>
@@ -13919,7 +13091,7 @@
         <v/>
       </c>
       <c r="F12" t="str">
-        <v>06 Chassisnummer                11491</v>
+        <v>07 Waardegarantietermijn        12353 jaar</v>
       </c>
       <c r="G12" t="str">
         <v>x</v>
@@ -13930,10 +13102,10 @@
         <v/>
       </c>
       <c r="B13" t="str">
-        <v>11491</v>
+        <v>12353</v>
       </c>
       <c r="C13" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D13" t="str">
         <v>Links</v>
@@ -13950,10 +13122,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Eigen risico casco</v>
+        <v>Eigen risico</v>
       </c>
       <c r="B14" t="str">
-        <v>€ 10043  10044</v>
+        <v>€ 10043</v>
       </c>
       <c r="C14" t="str">
         <v/>
@@ -13965,7 +13137,7 @@
         <v/>
       </c>
       <c r="F14" t="str">
-        <v>07 Eigen risico casco           € 10043  10044</v>
+        <v>08 Eigen risico                 € 10043</v>
       </c>
       <c r="G14" t="str">
         <v>x</v>
@@ -13985,7 +13157,7 @@
         <v>Rechts</v>
       </c>
       <c r="E15" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F15" t="str">
         <v/>
@@ -13996,53 +13168,30 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v/>
+        <v>Verzekerde rubrieken</v>
       </c>
       <c r="B16" t="str">
-        <v>10044</v>
+        <v xml:space="preserve">                        Verzekerd bedrag</v>
       </c>
       <c r="C16" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D16" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E16" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F16" t="str">
-        <v/>
+        <v>10 Verzekerde rubrieken                             Verzekerd bedrag</v>
       </c>
       <c r="G16" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Verzekerde rubrieken</v>
-      </c>
-      <c r="B17" t="str">
-        <v xml:space="preserve">                        Verzekerd bedrag</v>
-      </c>
-      <c r="C17" t="str">
-        <v/>
-      </c>
-      <c r="D17" t="str">
-        <v/>
-      </c>
-      <c r="E17" t="str">
-        <v/>
-      </c>
-      <c r="F17" t="str">
-        <v>09 Verzekerde rubrieken                             Verzekerd bedrag</v>
-      </c>
-      <c r="G17" t="str">
         <v>x</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G16"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -14095,10 +13244,10 @@
         <v>02042</v>
       </c>
       <c r="N1" t="str">
+        <v>02080</v>
+      </c>
+      <c r="O1" t="str">
         <v>02070</v>
-      </c>
-      <c r="O1" t="str">
-        <v>02080</v>
       </c>
       <c r="P1" t="str">
         <v>02093</v>
@@ -14367,10 +13516,10 @@
         <v>x</v>
       </c>
       <c r="N5" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O5" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P5" t="str">
         <v>x</v>
@@ -14435,10 +13584,10 @@
         <v>x</v>
       </c>
       <c r="N6" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O6" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P6" t="str">
         <v>x</v>
@@ -14503,10 +13652,10 @@
         <v>x</v>
       </c>
       <c r="N7" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O7" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P7" t="str">
         <v>x</v>
@@ -14571,10 +13720,10 @@
         <v>x</v>
       </c>
       <c r="N8" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O8" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P8" t="str">
         <v>x</v>
@@ -14639,10 +13788,10 @@
         <v/>
       </c>
       <c r="N9" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O9" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P9" t="str">
         <v/>
@@ -14707,10 +13856,10 @@
         <v/>
       </c>
       <c r="N10" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O10" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P10" t="str">
         <v/>
@@ -14775,10 +13924,10 @@
         <v/>
       </c>
       <c r="N11" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O11" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P11" t="str">
         <v/>
@@ -15047,10 +14196,10 @@
         <v/>
       </c>
       <c r="N15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O15" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P15" t="str">
         <v/>
@@ -15115,10 +14264,10 @@
         <v/>
       </c>
       <c r="N16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O16" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P16" t="str">
         <v/>
@@ -15183,10 +14332,10 @@
         <v>x</v>
       </c>
       <c r="N17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P17" t="str">
         <v>x</v>
@@ -15251,10 +14400,10 @@
         <v>x</v>
       </c>
       <c r="N18" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P18" t="str">
         <v>x</v>
@@ -15455,10 +14604,10 @@
         <v>x</v>
       </c>
       <c r="N21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O21" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P21" t="str">
         <v>x</v>
@@ -15523,10 +14672,10 @@
         <v>x</v>
       </c>
       <c r="N22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O22" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P22" t="str">
         <v>x</v>
@@ -15727,10 +14876,10 @@
         <v>x</v>
       </c>
       <c r="N25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P25" t="str">
         <v>x</v>
@@ -15795,10 +14944,10 @@
         <v>x</v>
       </c>
       <c r="N26" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P26" t="str">
         <v>x</v>
@@ -16203,10 +15352,10 @@
         <v>x</v>
       </c>
       <c r="N32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P32" t="str">
         <v>x</v>
@@ -16271,10 +15420,10 @@
         <v>x</v>
       </c>
       <c r="N33" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O33" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P33" t="str">
         <v>x</v>
@@ -16475,10 +15624,10 @@
         <v>x</v>
       </c>
       <c r="N36" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O36" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P36" t="str">
         <v>x</v>
@@ -16543,10 +15692,10 @@
         <v>x</v>
       </c>
       <c r="N37" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O37" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P37" t="str">
         <v>x</v>
@@ -17019,10 +16168,10 @@
         <v>x</v>
       </c>
       <c r="N44" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P44" t="str">
         <v/>
@@ -17087,10 +16236,10 @@
         <v>x</v>
       </c>
       <c r="N45" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P45" t="str">
         <v/>
@@ -17155,10 +16304,10 @@
         <v>x</v>
       </c>
       <c r="N46" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O46" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P46" t="str">
         <v/>
@@ -17223,10 +16372,10 @@
         <v>x</v>
       </c>
       <c r="N47" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O47" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P47" t="str">
         <v/>
@@ -17291,10 +16440,10 @@
         <v>x</v>
       </c>
       <c r="N48" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O48" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P48" t="str">
         <v/>
@@ -18039,10 +17188,10 @@
         <v/>
       </c>
       <c r="N59" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O59" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P59" t="str">
         <v/>
@@ -18107,10 +17256,10 @@
         <v/>
       </c>
       <c r="N60" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O60" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P60" t="str">
         <v/>
@@ -18483,7 +17632,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -18508,7 +17657,7 @@
         <v>regel template</v>
       </c>
       <c r="G1" t="str">
-        <v>P379</v>
+        <v>P359</v>
       </c>
     </row>
     <row r="2">
@@ -18516,7 +17665,7 @@
         <v>Soort verzekering</v>
       </c>
       <c r="B2" t="str">
-        <v>VvAA paardentrailerverzekering</v>
+        <v>10142</v>
       </c>
       <c r="C2" t="str">
         <v/>
@@ -18528,7 +17677,7 @@
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>02 Soort verzekering            VvAA paardentrailerverzekering</v>
+        <v>02 Soort verzekering            10142</v>
       </c>
       <c r="G2" t="str">
         <v>x</v>
@@ -18536,22 +17685,22 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Merk en type</v>
+        <v/>
       </c>
       <c r="B3" t="str">
-        <v>11493 11495</v>
+        <v>10142</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F3" t="str">
-        <v>03 Merk en type                 11493 11495</v>
+        <v/>
       </c>
       <c r="G3" t="str">
         <v>x</v>
@@ -18559,22 +17708,22 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>Soort recreatieverblijf</v>
       </c>
       <c r="B4" t="str">
-        <v>11493</v>
+        <v>80913</v>
       </c>
       <c r="C4" t="str">
         <v/>
       </c>
       <c r="D4" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>03 Soort recreatieverblijf      80913</v>
       </c>
       <c r="G4" t="str">
         <v>x</v>
@@ -18585,10 +17734,10 @@
         <v/>
       </c>
       <c r="B5" t="str">
-        <v>11495</v>
+        <v>80913</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D5" t="str">
         <v>Links</v>
@@ -18605,10 +17754,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Chassisnummer</v>
+        <v>Merk en type</v>
       </c>
       <c r="B6" t="str">
-        <v>11491</v>
+        <v>10218 10219 10220</v>
       </c>
       <c r="C6" t="str">
         <v/>
@@ -18620,7 +17769,7 @@
         <v/>
       </c>
       <c r="F6" t="str">
-        <v>04 Chassisnummer                11491</v>
+        <v>04 Merk en type                 10218 10219 10220</v>
       </c>
       <c r="G6" t="str">
         <v>x</v>
@@ -18631,7 +17780,7 @@
         <v/>
       </c>
       <c r="B7" t="str">
-        <v>11491</v>
+        <v>10218</v>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -18651,22 +17800,22 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Particuliere verhuur</v>
+        <v/>
       </c>
       <c r="B8" t="str">
-        <v>13698</v>
+        <v>10219</v>
       </c>
       <c r="C8" t="str">
         <v/>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F8" t="str">
-        <v>05 Particuliere verhuur         13698</v>
+        <v/>
       </c>
       <c r="G8" t="str">
         <v>x</v>
@@ -18677,7 +17826,7 @@
         <v/>
       </c>
       <c r="B9" t="str">
-        <v>13698</v>
+        <v>10220</v>
       </c>
       <c r="C9" t="str">
         <v/>
@@ -18686,7 +17835,7 @@
         <v>Links</v>
       </c>
       <c r="E9" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F9" t="str">
         <v/>
@@ -18697,10 +17846,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Verzekeringsgebied</v>
+        <v>Kenteken</v>
       </c>
       <c r="B10" t="str">
-        <v>10246</v>
+        <v>11252</v>
       </c>
       <c r="C10" t="str">
         <v/>
@@ -18712,7 +17861,7 @@
         <v/>
       </c>
       <c r="F10" t="str">
-        <v>06 Verzekeringsgebied           10246</v>
+        <v>05 Kenteken                     11252</v>
       </c>
       <c r="G10" t="str">
         <v>x</v>
@@ -18723,10 +17872,10 @@
         <v/>
       </c>
       <c r="B11" t="str">
-        <v>10246</v>
+        <v>11252</v>
       </c>
       <c r="C11" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D11" t="str">
         <v>Links</v>
@@ -18743,10 +17892,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Waardegarantietermijn</v>
+        <v>Chassisnummer</v>
       </c>
       <c r="B12" t="str">
-        <v>12353 jaar</v>
+        <v>11491</v>
       </c>
       <c r="C12" t="str">
         <v/>
@@ -18758,7 +17907,7 @@
         <v/>
       </c>
       <c r="F12" t="str">
-        <v>07 Waardegarantietermijn        12353 jaar</v>
+        <v>06 Chassisnummer                11491</v>
       </c>
       <c r="G12" t="str">
         <v>x</v>
@@ -18769,10 +17918,10 @@
         <v/>
       </c>
       <c r="B13" t="str">
-        <v>12353</v>
+        <v>11491</v>
       </c>
       <c r="C13" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D13" t="str">
         <v>Links</v>
@@ -18789,10 +17938,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Eigen risico</v>
+        <v>Eigen risico casco</v>
       </c>
       <c r="B14" t="str">
-        <v>€ 10043</v>
+        <v>€ 10043  10044</v>
       </c>
       <c r="C14" t="str">
         <v/>
@@ -18804,7 +17953,7 @@
         <v/>
       </c>
       <c r="F14" t="str">
-        <v>08 Eigen risico                 € 10043</v>
+        <v>07 Eigen risico casco           € 10043  10044</v>
       </c>
       <c r="G14" t="str">
         <v>x</v>
@@ -18824,7 +17973,7 @@
         <v>Rechts</v>
       </c>
       <c r="E15" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F15" t="str">
         <v/>
@@ -18835,30 +17984,53 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v>10044</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E16" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
         <v>Verzekerde rubrieken</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B17" t="str">
         <v xml:space="preserve">                        Verzekerd bedrag</v>
       </c>
-      <c r="C16" t="str">
-        <v/>
-      </c>
-      <c r="D16" t="str">
-        <v/>
-      </c>
-      <c r="E16" t="str">
-        <v/>
-      </c>
-      <c r="F16" t="str">
-        <v>10 Verzekerde rubrieken                             Verzekerd bedrag</v>
-      </c>
-      <c r="G16" t="str">
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v>09 Verzekerde rubrieken                             Verzekerd bedrag</v>
+      </c>
+      <c r="G17" t="str">
         <v>x</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G17"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -18890,19 +18062,19 @@
         <v>regel template</v>
       </c>
       <c r="G1" t="str">
+        <v>P368</v>
+      </c>
+      <c r="H1" t="str">
+        <v>P379</v>
+      </c>
+      <c r="I1" t="str">
+        <v>P313</v>
+      </c>
+      <c r="J1" t="str">
         <v>P302</v>
       </c>
-      <c r="H1" t="str">
-        <v>P313</v>
-      </c>
-      <c r="I1" t="str">
-        <v>P368</v>
-      </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>P352</v>
-      </c>
-      <c r="K1" t="str">
-        <v>P379</v>
       </c>
     </row>
     <row r="2">
@@ -18928,7 +18100,7 @@
         <v>x</v>
       </c>
       <c r="H2" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I2" t="str">
         <v>x</v>
@@ -18937,7 +18109,7 @@
         <v>x</v>
       </c>
       <c r="K2" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="3">
@@ -18963,7 +18135,7 @@
         <v>x</v>
       </c>
       <c r="H3" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I3" t="str">
         <v>x</v>
@@ -18972,7 +18144,7 @@
         <v>x</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="4">
@@ -18998,7 +18170,7 @@
         <v/>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I4" t="str">
         <v/>
@@ -19007,7 +18179,7 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -19292,10 +18464,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Beveiliging</v>
+        <v>Bouwjaar</v>
       </c>
       <c r="B13" t="str">
-        <v>11236</v>
+        <v>10034</v>
       </c>
       <c r="C13" t="str">
         <v/>
@@ -19307,22 +18479,22 @@
         <v/>
       </c>
       <c r="F13" t="str">
-        <v>06 Beveiliging                  11236</v>
+        <v>06 Bouwjaar                     10034</v>
       </c>
       <c r="G13" t="str">
         <v>x</v>
       </c>
       <c r="H13" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I13" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J13" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K13" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -19330,16 +18502,16 @@
         <v/>
       </c>
       <c r="B14" t="str">
-        <v>11236</v>
+        <v>10034</v>
       </c>
       <c r="C14" t="str">
-        <v>Omschrijving</v>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D14" t="str">
         <v>Links</v>
       </c>
       <c r="E14" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F14" t="str">
         <v/>
@@ -19348,24 +18520,24 @@
         <v>x</v>
       </c>
       <c r="H14" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I14" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J14" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K14" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Bouwjaar</v>
+        <v>Beveiliging</v>
       </c>
       <c r="B15" t="str">
-        <v>10034</v>
+        <v>11236</v>
       </c>
       <c r="C15" t="str">
         <v/>
@@ -19377,22 +18549,22 @@
         <v/>
       </c>
       <c r="F15" t="str">
-        <v>06 Bouwjaar                     10034</v>
+        <v>07 Beveiliging                  11236</v>
       </c>
       <c r="G15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I15" t="str">
         <v>x</v>
       </c>
       <c r="J15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K15" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="16">
@@ -19400,34 +18572,34 @@
         <v/>
       </c>
       <c r="B16" t="str">
-        <v>10034</v>
+        <v>11236</v>
       </c>
       <c r="C16" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v>Omschrijving</v>
       </c>
       <c r="D16" t="str">
         <v>Links</v>
       </c>
       <c r="E16" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
       <c r="G16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I16" t="str">
         <v>x</v>
       </c>
       <c r="J16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K16" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="17">
@@ -19447,7 +18619,7 @@
         <v/>
       </c>
       <c r="F17" t="str">
-        <v>07 Gebruik                      10260</v>
+        <v>08 Gebruik                      10260</v>
       </c>
       <c r="G17" t="str">
         <v>x</v>
@@ -19502,10 +18674,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Kilometrage</v>
+        <v>Eigen risico</v>
       </c>
       <c r="B19" t="str">
-        <v>10036</v>
+        <v>€ 10043 10044</v>
       </c>
       <c r="C19" t="str">
         <v/>
@@ -19517,19 +18689,19 @@
         <v/>
       </c>
       <c r="F19" t="str">
-        <v>08 Kilometrage                  10036</v>
+        <v>09 Eigen risico                 € 10043 10044</v>
       </c>
       <c r="G19" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H19" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I19" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J19" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K19" t="str">
         <v>x</v>
@@ -19540,13 +18712,13 @@
         <v/>
       </c>
       <c r="B20" t="str">
-        <v>10036</v>
+        <v>10043</v>
       </c>
       <c r="C20" t="str">
-        <v>Omschrijving</v>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D20" t="str">
-        <v>Links</v>
+        <v>Rechts</v>
       </c>
       <c r="E20" t="str">
         <v>verwijderen</v>
@@ -19555,16 +18727,16 @@
         <v/>
       </c>
       <c r="G20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K20" t="str">
         <v>x</v>
@@ -19572,22 +18744,22 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Eigen risico</v>
+        <v/>
       </c>
       <c r="B21" t="str">
-        <v>€ 10043 10044</v>
+        <v>10044</v>
       </c>
       <c r="C21" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D21" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E21" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F21" t="str">
-        <v>09 Eigen risico                 € 10043 10044</v>
+        <v/>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -19599,45 +18771,45 @@
         <v/>
       </c>
       <c r="J21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K21" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v/>
+        <v>Kilometrage</v>
       </c>
       <c r="B22" t="str">
-        <v>10043</v>
+        <v>10036</v>
       </c>
       <c r="C22" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D22" t="str">
-        <v>Rechts</v>
+        <v/>
       </c>
       <c r="E22" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F22" t="str">
-        <v/>
+        <v>09 Kilometrage                  10036</v>
       </c>
       <c r="G22" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H22" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I22" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J22" t="str">
         <v>x</v>
       </c>
       <c r="K22" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="23">
@@ -19645,7 +18817,7 @@
         <v/>
       </c>
       <c r="B23" t="str">
-        <v>10044</v>
+        <v>10036</v>
       </c>
       <c r="C23" t="str">
         <v>Omschrijving</v>
@@ -19654,25 +18826,25 @@
         <v>Links</v>
       </c>
       <c r="E23" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F23" t="str">
         <v/>
       </c>
       <c r="G23" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H23" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I23" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J23" t="str">
         <v>x</v>
       </c>
       <c r="K23" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="24">
@@ -19695,7 +18867,7 @@
         <v>09 Regelmatige bestuurder       11213 11214 11212</v>
       </c>
       <c r="G24" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H24" t="str">
         <v/>
@@ -19704,7 +18876,7 @@
         <v/>
       </c>
       <c r="J24" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K24" t="str">
         <v/>
@@ -19730,7 +18902,7 @@
         <v/>
       </c>
       <c r="G25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H25" t="str">
         <v/>
@@ -19739,7 +18911,7 @@
         <v/>
       </c>
       <c r="J25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K25" t="str">
         <v/>
@@ -19765,7 +18937,7 @@
         <v/>
       </c>
       <c r="G26" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H26" t="str">
         <v/>
@@ -19774,7 +18946,7 @@
         <v/>
       </c>
       <c r="J26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K26" t="str">
         <v/>
@@ -19800,7 +18972,7 @@
         <v/>
       </c>
       <c r="G27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H27" t="str">
         <v/>
@@ -19809,7 +18981,7 @@
         <v/>
       </c>
       <c r="J27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K27" t="str">
         <v/>
@@ -19841,13 +19013,13 @@
         <v>x</v>
       </c>
       <c r="I28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J28" t="str">
         <v/>
       </c>
       <c r="K28" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="29">
@@ -19876,21 +19048,21 @@
         <v>x</v>
       </c>
       <c r="I29" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J29" t="str">
         <v/>
       </c>
       <c r="K29" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Gebruikersperiode</v>
+        <v>Eigen risico</v>
       </c>
       <c r="B30" t="str">
-        <v>11885</v>
+        <v>€ 10043</v>
       </c>
       <c r="C30" t="str">
         <v/>
@@ -19902,19 +19074,19 @@
         <v/>
       </c>
       <c r="F30" t="str">
-        <v>10 Gebruikersperiode            11885</v>
+        <v>10 Eigen risico                 € 10043</v>
       </c>
       <c r="G30" t="str">
         <v>x</v>
       </c>
       <c r="H30" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I30" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J30" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K30" t="str">
         <v/>
@@ -19925,13 +19097,13 @@
         <v/>
       </c>
       <c r="B31" t="str">
-        <v>11885</v>
+        <v>10043</v>
       </c>
       <c r="C31" t="str">
-        <v>Omschrijving</v>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D31" t="str">
-        <v>Links</v>
+        <v>Rechts</v>
       </c>
       <c r="E31" t="str">
         <v>verwijderen</v>
@@ -19943,13 +19115,13 @@
         <v>x</v>
       </c>
       <c r="H31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K31" t="str">
         <v/>
@@ -19957,10 +19129,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Eigen risico</v>
+        <v>Gebruikersperiode</v>
       </c>
       <c r="B32" t="str">
-        <v>€ 10043</v>
+        <v>11885</v>
       </c>
       <c r="C32" t="str">
         <v/>
@@ -19972,22 +19144,22 @@
         <v/>
       </c>
       <c r="F32" t="str">
-        <v>11 Eigen risico                 € 10043</v>
+        <v>10 Gebruikersperiode            11885</v>
       </c>
       <c r="G32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K32" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="33">
@@ -19995,13 +19167,13 @@
         <v/>
       </c>
       <c r="B33" t="str">
-        <v>10043</v>
+        <v>11885</v>
       </c>
       <c r="C33" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v>Omschrijving</v>
       </c>
       <c r="D33" t="str">
-        <v>Rechts</v>
+        <v>Links</v>
       </c>
       <c r="E33" t="str">
         <v>verwijderen</v>
@@ -20010,27 +19182,27 @@
         <v/>
       </c>
       <c r="G33" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H33" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I33" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J33" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K33" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Lid oldtimer club</v>
+        <v>Taxatiedatum</v>
       </c>
       <c r="B34" t="str">
-        <v>84754</v>
+        <v>11780</v>
       </c>
       <c r="C34" t="str">
         <v/>
@@ -20042,19 +19214,19 @@
         <v/>
       </c>
       <c r="F34" t="str">
-        <v>12 Lid oldtimer club            84754</v>
+        <v>11 Taxatiedatum                 11780</v>
       </c>
       <c r="G34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I34" t="str">
         <v>x</v>
       </c>
       <c r="J34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K34" t="str">
         <v/>
@@ -20065,10 +19237,10 @@
         <v/>
       </c>
       <c r="B35" t="str">
-        <v>84754</v>
+        <v>11780</v>
       </c>
       <c r="C35" t="str">
-        <v/>
+        <v>Datum (DD-MM-EEJJ)</v>
       </c>
       <c r="D35" t="str">
         <v>Links</v>
@@ -20080,16 +19252,16 @@
         <v/>
       </c>
       <c r="G35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I35" t="str">
         <v>x</v>
       </c>
       <c r="J35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K35" t="str">
         <v/>
@@ -20097,10 +19269,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Taxatiedatum</v>
+        <v>Lid oldtimer club</v>
       </c>
       <c r="B36" t="str">
-        <v>11780</v>
+        <v>84754</v>
       </c>
       <c r="C36" t="str">
         <v/>
@@ -20112,22 +19284,22 @@
         <v/>
       </c>
       <c r="F36" t="str">
-        <v>12 Taxatiedatum                 11780</v>
+        <v>12 Lid oldtimer club            84754</v>
       </c>
       <c r="G36" t="str">
         <v>x</v>
       </c>
       <c r="H36" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I36" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J36" t="str">
         <v/>
       </c>
       <c r="K36" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="37">
@@ -20135,10 +19307,10 @@
         <v/>
       </c>
       <c r="B37" t="str">
-        <v>11780</v>
+        <v>84754</v>
       </c>
       <c r="C37" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
+        <v/>
       </c>
       <c r="D37" t="str">
         <v>Links</v>
@@ -20153,16 +19325,16 @@
         <v>x</v>
       </c>
       <c r="H37" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I37" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J37" t="str">
         <v/>
       </c>
       <c r="K37" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="38">
@@ -20237,10 +19409,10 @@
         <v>P302</v>
       </c>
       <c r="H1" t="str">
+        <v>P379</v>
+      </c>
+      <c r="I1" t="str">
         <v>P313</v>
-      </c>
-      <c r="I1" t="str">
-        <v>P379</v>
       </c>
       <c r="J1" t="str">
         <v>P383</v>
@@ -20269,10 +19441,10 @@
         <v/>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I2" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J2" t="str">
         <v/>
@@ -20301,10 +19473,10 @@
         <v>x</v>
       </c>
       <c r="H3" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J3" t="str">
         <v>x</v>
@@ -20333,10 +19505,10 @@
         <v>x</v>
       </c>
       <c r="H4" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J4" t="str">
         <v>x</v>
@@ -22148,10 +21320,10 @@
         <v>regel template</v>
       </c>
       <c r="G1" t="str">
+        <v>P302</v>
+      </c>
+      <c r="H1" t="str">
         <v>P311</v>
-      </c>
-      <c r="H1" t="str">
-        <v>P302</v>
       </c>
     </row>
     <row r="2">
@@ -22171,7 +21343,7 @@
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>02 Soort verzekering             10142</v>
+        <v>02 Soort verzekering            10142</v>
       </c>
       <c r="G2" t="str">
         <v>x</v>
@@ -22223,7 +21395,7 @@
         <v/>
       </c>
       <c r="F4" t="str">
-        <v>03 Merk en type                  10218 10219 10220</v>
+        <v>03 Merk en type                 10218 10219 10220</v>
       </c>
       <c r="G4" t="str">
         <v>x</v>
@@ -22327,7 +21499,7 @@
         <v/>
       </c>
       <c r="F8" t="str">
-        <v>04 Kenteken                      10033</v>
+        <v>04 Kenteken                     10033</v>
       </c>
       <c r="G8" t="str">
         <v>x</v>
@@ -22379,7 +21551,7 @@
         <v/>
       </c>
       <c r="F10" t="str">
-        <v>05 Meldcode                      10112</v>
+        <v>05 Meldcode                     10112</v>
       </c>
       <c r="G10" t="str">
         <v>x</v>
@@ -22431,7 +21603,7 @@
         <v/>
       </c>
       <c r="F12" t="str">
-        <v>06 Beveiliging                   11236</v>
+        <v>06 Beveiliging                  11236</v>
       </c>
       <c r="G12" t="str">
         <v>x</v>
@@ -22483,7 +21655,7 @@
         <v/>
       </c>
       <c r="F14" t="str">
-        <v>07 Gebruik                       10260</v>
+        <v>07 Gebruik                      10260</v>
       </c>
       <c r="G14" t="str">
         <v>x</v>
@@ -22535,7 +21707,7 @@
         <v/>
       </c>
       <c r="F16" t="str">
-        <v>08 Kilometrage                   10036</v>
+        <v>08 Kilometrage                  10036</v>
       </c>
       <c r="G16" t="str">
         <v>x</v>
@@ -22590,10 +21762,10 @@
         <v>09 Verzekerd bedrag accessoires € 11239</v>
       </c>
       <c r="G18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H18" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="19">
@@ -22616,18 +21788,18 @@
         <v/>
       </c>
       <c r="G19" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H19" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Zuivere schadevrije jaren</v>
+        <v>Regelmatige bestuurder</v>
       </c>
       <c r="B20" t="str">
-        <v>13218</v>
+        <v>11213 11214 11212</v>
       </c>
       <c r="C20" t="str">
         <v/>
@@ -22639,13 +21811,13 @@
         <v/>
       </c>
       <c r="F20" t="str">
-        <v>09 Zuivere schadevrije jaren     13218</v>
+        <v>10 Regelmatige bestuurder       11213 11214 11212</v>
       </c>
       <c r="G20" t="str">
         <v>x</v>
       </c>
       <c r="H20" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -22653,10 +21825,10 @@
         <v/>
       </c>
       <c r="B21" t="str">
-        <v>13218</v>
+        <v>11213</v>
       </c>
       <c r="C21" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D21" t="str">
         <v>Links</v>
@@ -22671,33 +21843,33 @@
         <v>x</v>
       </c>
       <c r="H21" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Bonus/malus</v>
+        <v/>
       </c>
       <c r="B22" t="str">
-        <v>Trede 10046 = 10050 %</v>
+        <v>11214</v>
       </c>
       <c r="C22" t="str">
         <v/>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F22" t="str">
-        <v>10 Bonus/malus                   Trede 10046 = 10050 %</v>
+        <v/>
       </c>
       <c r="G22" t="str">
         <v>x</v>
       </c>
       <c r="H22" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="23">
@@ -22705,7 +21877,7 @@
         <v/>
       </c>
       <c r="B23" t="str">
-        <v>10046</v>
+        <v>11212</v>
       </c>
       <c r="C23" t="str">
         <v/>
@@ -22723,30 +21895,30 @@
         <v>x</v>
       </c>
       <c r="H23" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v/>
+        <v>Bonus/malus Casco</v>
       </c>
       <c r="B24" t="str">
-        <v>10050</v>
+        <v>Trede 13199 = 13203 %</v>
       </c>
       <c r="C24" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D24" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E24" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F24" t="str">
-        <v/>
+        <v>11 Bonus/malus Casco             Trede 13199 = 13203 %</v>
       </c>
       <c r="G24" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H24" t="str">
         <v>x</v>
@@ -22754,22 +21926,22 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Regelmatige bestuurder</v>
+        <v/>
       </c>
       <c r="B25" t="str">
-        <v>11213 11214 11212</v>
+        <v>13199</v>
       </c>
       <c r="C25" t="str">
         <v/>
       </c>
       <c r="D25" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E25" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F25" t="str">
-        <v>10 Regelmatige bestuurder       11213 11214 11212</v>
+        <v/>
       </c>
       <c r="G25" t="str">
         <v/>
@@ -22783,10 +21955,10 @@
         <v/>
       </c>
       <c r="B26" t="str">
-        <v>11213</v>
+        <v>13203</v>
       </c>
       <c r="C26" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D26" t="str">
         <v>Links</v>
@@ -22806,25 +21978,25 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v/>
+        <v>Zuivere schadevrije jaren</v>
       </c>
       <c r="B27" t="str">
-        <v>11214</v>
+        <v>13218</v>
       </c>
       <c r="C27" t="str">
         <v/>
       </c>
       <c r="D27" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E27" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F27" t="str">
-        <v/>
+        <v>11 Zuivere schadevrije jaren    13218</v>
       </c>
       <c r="G27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H27" t="str">
         <v>x</v>
@@ -22835,22 +22007,22 @@
         <v/>
       </c>
       <c r="B28" t="str">
-        <v>11212</v>
+        <v>13218</v>
       </c>
       <c r="C28" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D28" t="str">
         <v>Links</v>
       </c>
       <c r="E28" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F28" t="str">
         <v/>
       </c>
       <c r="G28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H28" t="str">
         <v>x</v>
@@ -22858,10 +22030,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Bonus/malus Casco</v>
+        <v>Bonus/malus</v>
       </c>
       <c r="B29" t="str">
-        <v>Trede 13199 = 13203 %</v>
+        <v>Trede 10046 = 10050 %</v>
       </c>
       <c r="C29" t="str">
         <v/>
@@ -22873,13 +22045,13 @@
         <v/>
       </c>
       <c r="F29" t="str">
-        <v>11 Bonus/malus Casco             Trede 13199 = 13203 %</v>
+        <v>12 Bonus/malus                  Trede 10046 = 10050 %</v>
       </c>
       <c r="G29" t="str">
         <v>x</v>
       </c>
       <c r="H29" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="30">
@@ -22887,7 +22059,7 @@
         <v/>
       </c>
       <c r="B30" t="str">
-        <v>13199</v>
+        <v>10046</v>
       </c>
       <c r="C30" t="str">
         <v/>
@@ -22905,7 +22077,7 @@
         <v>x</v>
       </c>
       <c r="H30" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="31">
@@ -22913,7 +22085,7 @@
         <v/>
       </c>
       <c r="B31" t="str">
-        <v>13203</v>
+        <v>10050</v>
       </c>
       <c r="C31" t="str">
         <v>Getal inclusief decimalen</v>
@@ -22931,7 +22103,7 @@
         <v>x</v>
       </c>
       <c r="H31" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="32">
@@ -22951,7 +22123,7 @@
         <v/>
       </c>
       <c r="F32" t="str">
-        <v>12 Eigen risico Casco            € 10043</v>
+        <v>13 Eigen risico Casco           € 10043</v>
       </c>
       <c r="G32" t="str">
         <v>x</v>
@@ -23003,7 +22175,7 @@
         <v/>
       </c>
       <c r="F34" t="str">
-        <v>14 Verzekerde rubrieken                             Verzekerd bedrag</v>
+        <v>15 Verzekerde rubrieken                             Verzekerd bedrag</v>
       </c>
       <c r="G34" t="str">
         <v>x</v>
@@ -23046,16 +22218,16 @@
         <v>regel template</v>
       </c>
       <c r="G1" t="str">
+        <v>P353</v>
+      </c>
+      <c r="H1" t="str">
         <v>P352</v>
-      </c>
-      <c r="H1" t="str">
-        <v>P306</v>
       </c>
       <c r="I1" t="str">
         <v>P357</v>
       </c>
       <c r="J1" t="str">
-        <v>P353</v>
+        <v>P306</v>
       </c>
       <c r="K1" t="str">
         <v>P375</v>
@@ -23768,7 +22940,7 @@
         <v>10 Bonus/malus                  Trede 10046</v>
       </c>
       <c r="G20" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H20" t="str">
         <v/>
@@ -23777,7 +22949,7 @@
         <v/>
       </c>
       <c r="J20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K20" t="str">
         <v/>
@@ -23806,7 +22978,7 @@
         <v/>
       </c>
       <c r="G21" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H21" t="str">
         <v/>
@@ -23815,7 +22987,7 @@
         <v/>
       </c>
       <c r="J21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K21" t="str">
         <v/>
@@ -23844,7 +23016,7 @@
         <v>10 Bonus/malus                  Trede 10046 = 10050 %</v>
       </c>
       <c r="G22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H22" t="str">
         <v>x</v>
@@ -23853,7 +23025,7 @@
         <v>x</v>
       </c>
       <c r="J22" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K22" t="str">
         <v>x</v>
@@ -23882,7 +23054,7 @@
         <v/>
       </c>
       <c r="G23" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H23" t="str">
         <v>x</v>
@@ -23891,7 +23063,7 @@
         <v>x</v>
       </c>
       <c r="J23" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K23" t="str">
         <v>x</v>
@@ -23920,7 +23092,7 @@
         <v/>
       </c>
       <c r="G24" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H24" t="str">
         <v>x</v>
@@ -23929,7 +23101,7 @@
         <v>x</v>
       </c>
       <c r="J24" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K24" t="str">
         <v>x</v>
@@ -23958,10 +23130,10 @@
         <v>11 Bonusgarantie                10830</v>
       </c>
       <c r="G25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I25" t="str">
         <v/>
@@ -23996,10 +23168,10 @@
         <v/>
       </c>
       <c r="G26" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I26" t="str">
         <v/>
@@ -24034,7 +23206,7 @@
         <v>11 Nieuwwaarderegeling          12398 maanden</v>
       </c>
       <c r="G27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H27" t="str">
         <v/>
@@ -24043,7 +23215,7 @@
         <v>x</v>
       </c>
       <c r="J27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K27" t="str">
         <v>x</v>
@@ -24072,7 +23244,7 @@
         <v/>
       </c>
       <c r="G28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H28" t="str">
         <v/>
@@ -24081,7 +23253,7 @@
         <v>x</v>
       </c>
       <c r="J28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K28" t="str">
         <v>x</v>
@@ -24110,7 +23282,7 @@
         <v>12 Aankoopwaarderegeling        12399 maanden</v>
       </c>
       <c r="G29" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H29" t="str">
         <v/>
@@ -24119,7 +23291,7 @@
         <v>x</v>
       </c>
       <c r="J29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K29" t="str">
         <v>x</v>
@@ -24148,7 +23320,7 @@
         <v/>
       </c>
       <c r="G30" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H30" t="str">
         <v/>
@@ -24157,7 +23329,7 @@
         <v>x</v>
       </c>
       <c r="J30" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K30" t="str">
         <v>x</v>
@@ -24189,13 +23361,13 @@
         <v/>
       </c>
       <c r="H31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I31" t="str">
         <v/>
       </c>
       <c r="J31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K31" t="str">
         <v/>
@@ -24227,13 +23399,13 @@
         <v/>
       </c>
       <c r="H32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I32" t="str">
         <v/>
       </c>
       <c r="J32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K32" t="str">
         <v/>
@@ -24262,10 +23434,10 @@
         <v>12 Verlengde nieuwwaarderegeling12398 maanden</v>
       </c>
       <c r="G33" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H33" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I33" t="str">
         <v/>
@@ -24300,10 +23472,10 @@
         <v/>
       </c>
       <c r="G34" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I34" t="str">
         <v/>
@@ -24566,7 +23738,7 @@
         <v>14 Verzekerd bedrag accessoires € 11241</v>
       </c>
       <c r="G41" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H41" t="str">
         <v/>
@@ -24575,7 +23747,7 @@
         <v/>
       </c>
       <c r="J41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K41" t="str">
         <v/>
@@ -24604,7 +23776,7 @@
         <v/>
       </c>
       <c r="G42" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H42" t="str">
         <v/>
@@ -24613,7 +23785,7 @@
         <v/>
       </c>
       <c r="J42" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K42" t="str">
         <v/>
@@ -24753,7 +23925,7 @@
         <v/>
       </c>
       <c r="F46" t="str">
-        <v>15 Verzekerde rubrieken                             Verzekerd bedrag</v>
+        <v>16 Verzekerde rubrieken                             Verzekerd bedrag</v>
       </c>
       <c r="G46" t="str">
         <v>x</v>
@@ -24783,802 +23955,6 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>omschrijving</v>
-      </c>
-      <c r="B1" t="str">
-        <v>inhoud</v>
-      </c>
-      <c r="C1" t="str">
-        <v>weergave</v>
-      </c>
-      <c r="D1" t="str">
-        <v>uitlijnen</v>
-      </c>
-      <c r="E1" t="str">
-        <v>regel verwijderen</v>
-      </c>
-      <c r="F1" t="str">
-        <v>regel template</v>
-      </c>
-      <c r="G1" t="str">
-        <v>P375</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Soort verzekering</v>
-      </c>
-      <c r="B2" t="str">
-        <v>10142</v>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="F2" t="str">
-        <v>02 Soort verzekering            10142</v>
-      </c>
-      <c r="G2" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v/>
-      </c>
-      <c r="B3" t="str">
-        <v>10142</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E3" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Merk en type</v>
-      </c>
-      <c r="B4" t="str">
-        <v>10218 10219 10220</v>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v>03 Merk en type                 10218 10219 10220</v>
-      </c>
-      <c r="G4" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v/>
-      </c>
-      <c r="B5" t="str">
-        <v>10218</v>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E5" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v/>
-      </c>
-      <c r="B6" t="str">
-        <v>10219</v>
-      </c>
-      <c r="C6" t="str">
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E6" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v/>
-      </c>
-      <c r="B7" t="str">
-        <v>10220</v>
-      </c>
-      <c r="C7" t="str">
-        <v/>
-      </c>
-      <c r="D7" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E7" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F7" t="str">
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Kenteken</v>
-      </c>
-      <c r="B8" t="str">
-        <v>10033</v>
-      </c>
-      <c r="C8" t="str">
-        <v/>
-      </c>
-      <c r="D8" t="str">
-        <v/>
-      </c>
-      <c r="E8" t="str">
-        <v/>
-      </c>
-      <c r="F8" t="str">
-        <v>04 Kenteken                     10033</v>
-      </c>
-      <c r="G8" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v/>
-      </c>
-      <c r="B9" t="str">
-        <v>10033</v>
-      </c>
-      <c r="C9" t="str">
-        <v/>
-      </c>
-      <c r="D9" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E9" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F9" t="str">
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Meldcode</v>
-      </c>
-      <c r="B10" t="str">
-        <v>10112</v>
-      </c>
-      <c r="C10" t="str">
-        <v/>
-      </c>
-      <c r="D10" t="str">
-        <v/>
-      </c>
-      <c r="E10" t="str">
-        <v/>
-      </c>
-      <c r="F10" t="str">
-        <v>05 Meldcode                     10112</v>
-      </c>
-      <c r="G10" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v/>
-      </c>
-      <c r="B11" t="str">
-        <v>10112</v>
-      </c>
-      <c r="C11" t="str">
-        <v/>
-      </c>
-      <c r="D11" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E11" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F11" t="str">
-        <v/>
-      </c>
-      <c r="G11" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Beveiliging</v>
-      </c>
-      <c r="B12" t="str">
-        <v>11236</v>
-      </c>
-      <c r="C12" t="str">
-        <v/>
-      </c>
-      <c r="D12" t="str">
-        <v/>
-      </c>
-      <c r="E12" t="str">
-        <v/>
-      </c>
-      <c r="F12" t="str">
-        <v>06 Beveiliging                  11236</v>
-      </c>
-      <c r="G12" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v/>
-      </c>
-      <c r="B13" t="str">
-        <v>11236</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E13" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F13" t="str">
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Gebruik</v>
-      </c>
-      <c r="B14" t="str">
-        <v>10260</v>
-      </c>
-      <c r="C14" t="str">
-        <v/>
-      </c>
-      <c r="D14" t="str">
-        <v/>
-      </c>
-      <c r="E14" t="str">
-        <v/>
-      </c>
-      <c r="F14" t="str">
-        <v>07 Gebruik                      10260</v>
-      </c>
-      <c r="G14" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v/>
-      </c>
-      <c r="B15" t="str">
-        <v>10260</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E15" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F15" t="str">
-        <v/>
-      </c>
-      <c r="G15" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Kilometrage</v>
-      </c>
-      <c r="B16" t="str">
-        <v>10036</v>
-      </c>
-      <c r="C16" t="str">
-        <v/>
-      </c>
-      <c r="D16" t="str">
-        <v/>
-      </c>
-      <c r="E16" t="str">
-        <v/>
-      </c>
-      <c r="F16" t="str">
-        <v>08 Kilometrage                  10036</v>
-      </c>
-      <c r="G16" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v/>
-      </c>
-      <c r="B17" t="str">
-        <v>10036</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D17" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E17" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F17" t="str">
-        <v/>
-      </c>
-      <c r="G17" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Zuivere schadevrije jaren</v>
-      </c>
-      <c r="B18" t="str">
-        <v>13218</v>
-      </c>
-      <c r="C18" t="str">
-        <v/>
-      </c>
-      <c r="D18" t="str">
-        <v/>
-      </c>
-      <c r="E18" t="str">
-        <v/>
-      </c>
-      <c r="F18" t="str">
-        <v>09 Zuivere schadevrije jaren    13218</v>
-      </c>
-      <c r="G18" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v/>
-      </c>
-      <c r="B19" t="str">
-        <v>13218</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Getal exclusief decimalen</v>
-      </c>
-      <c r="D19" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E19" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F19" t="str">
-        <v/>
-      </c>
-      <c r="G19" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Bonus/malus</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Trede 10046 = 10050 %</v>
-      </c>
-      <c r="C20" t="str">
-        <v/>
-      </c>
-      <c r="D20" t="str">
-        <v/>
-      </c>
-      <c r="E20" t="str">
-        <v/>
-      </c>
-      <c r="F20" t="str">
-        <v>10 Bonus/malus                  Trede 10046 = 10050 %</v>
-      </c>
-      <c r="G20" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v/>
-      </c>
-      <c r="B21" t="str">
-        <v>10046</v>
-      </c>
-      <c r="C21" t="str">
-        <v/>
-      </c>
-      <c r="D21" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E21" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F21" t="str">
-        <v/>
-      </c>
-      <c r="G21" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v/>
-      </c>
-      <c r="B22" t="str">
-        <v>10050</v>
-      </c>
-      <c r="C22" t="str">
-        <v>Getal inclusief decimalen</v>
-      </c>
-      <c r="D22" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E22" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F22" t="str">
-        <v/>
-      </c>
-      <c r="G22" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Nieuwwaarderegeling</v>
-      </c>
-      <c r="B23" t="str">
-        <v>12398 maanden</v>
-      </c>
-      <c r="C23" t="str">
-        <v/>
-      </c>
-      <c r="D23" t="str">
-        <v/>
-      </c>
-      <c r="E23" t="str">
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <v>11 Nieuwwaarderegeling          12398 maanden</v>
-      </c>
-      <c r="G23" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v/>
-      </c>
-      <c r="B24" t="str">
-        <v>12398</v>
-      </c>
-      <c r="C24" t="str">
-        <v>Getal exclusief decimalen</v>
-      </c>
-      <c r="D24" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E24" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F24" t="str">
-        <v/>
-      </c>
-      <c r="G24" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Aankoopwaarderegeling</v>
-      </c>
-      <c r="B25" t="str">
-        <v>12399 maanden</v>
-      </c>
-      <c r="C25" t="str">
-        <v/>
-      </c>
-      <c r="D25" t="str">
-        <v/>
-      </c>
-      <c r="E25" t="str">
-        <v/>
-      </c>
-      <c r="F25" t="str">
-        <v>12 Aankoopwaarderegeling        12399 maanden</v>
-      </c>
-      <c r="G25" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v/>
-      </c>
-      <c r="B26" t="str">
-        <v>12399</v>
-      </c>
-      <c r="C26" t="str">
-        <v>Getal exclusief decimalen</v>
-      </c>
-      <c r="D26" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E26" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F26" t="str">
-        <v/>
-      </c>
-      <c r="G26" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Eigen risico Casco</v>
-      </c>
-      <c r="B27" t="str">
-        <v>€ 10043</v>
-      </c>
-      <c r="C27" t="str">
-        <v/>
-      </c>
-      <c r="D27" t="str">
-        <v/>
-      </c>
-      <c r="E27" t="str">
-        <v/>
-      </c>
-      <c r="F27" t="str">
-        <v>13 Eigen risico Casco           € 10043</v>
-      </c>
-      <c r="G27" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v/>
-      </c>
-      <c r="B28" t="str">
-        <v>10043</v>
-      </c>
-      <c r="C28" t="str">
-        <v>Getal inclusief decimalen</v>
-      </c>
-      <c r="D28" t="str">
-        <v>Rechts</v>
-      </c>
-      <c r="E28" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F28" t="str">
-        <v/>
-      </c>
-      <c r="G28" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>Militair</v>
-      </c>
-      <c r="B29" t="str">
-        <v>Ja                                                 81005</v>
-      </c>
-      <c r="C29" t="str">
-        <v/>
-      </c>
-      <c r="D29" t="str">
-        <v/>
-      </c>
-      <c r="E29" t="str">
-        <v/>
-      </c>
-      <c r="F29" t="str">
-        <v>14 Militair                     Ja                                                 81005</v>
-      </c>
-      <c r="G29" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v/>
-      </c>
-      <c r="B30" t="str">
-        <v>81005</v>
-      </c>
-      <c r="C30" t="str">
-        <v>Getal exclusief decimalen</v>
-      </c>
-      <c r="D30" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E30" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F30" t="str">
-        <v/>
-      </c>
-      <c r="G30" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>Lid van de vakbond</v>
-      </c>
-      <c r="B31" t="str">
-        <v>80991                                                  81005</v>
-      </c>
-      <c r="C31" t="str">
-        <v/>
-      </c>
-      <c r="D31" t="str">
-        <v/>
-      </c>
-      <c r="E31" t="str">
-        <v/>
-      </c>
-      <c r="F31" t="str">
-        <v>15 Lid van de vakbond           80991                                                  81005</v>
-      </c>
-      <c r="G31" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v/>
-      </c>
-      <c r="B32" t="str">
-        <v>80991</v>
-      </c>
-      <c r="C32" t="str">
-        <v/>
-      </c>
-      <c r="D32" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E32" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F32" t="str">
-        <v/>
-      </c>
-      <c r="G32" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v/>
-      </c>
-      <c r="B33" t="str">
-        <v>81005</v>
-      </c>
-      <c r="C33" t="str">
-        <v>Getal exclusief decimalen</v>
-      </c>
-      <c r="D33" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E33" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F33" t="str">
-        <v/>
-      </c>
-      <c r="G33" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>Verzekerde rubrieken</v>
-      </c>
-      <c r="B34" t="str">
-        <v xml:space="preserve">                        Verzekerd bedrag</v>
-      </c>
-      <c r="C34" t="str">
-        <v/>
-      </c>
-      <c r="D34" t="str">
-        <v/>
-      </c>
-      <c r="E34" t="str">
-        <v/>
-      </c>
-      <c r="F34" t="str">
-        <v>17 Verzekerde rubrieken                             Verzekerd bedrag</v>
-      </c>
-      <c r="G34" t="str">
-        <v>x</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G34"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
@@ -26394,4 +24770,1628 @@
     <ignoredError numberStoredAsText="1" sqref="A1:G35"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>omschrijving</v>
+      </c>
+      <c r="B1" t="str">
+        <v>inhoud</v>
+      </c>
+      <c r="C1" t="str">
+        <v>weergave</v>
+      </c>
+      <c r="D1" t="str">
+        <v>uitlijnen</v>
+      </c>
+      <c r="E1" t="str">
+        <v>regel verwijderen</v>
+      </c>
+      <c r="F1" t="str">
+        <v>regel template</v>
+      </c>
+      <c r="G1" t="str">
+        <v>P302</v>
+      </c>
+      <c r="H1" t="str">
+        <v>P313</v>
+      </c>
+      <c r="I1" t="str">
+        <v>P383</v>
+      </c>
+      <c r="J1" t="str">
+        <v>P384</v>
+      </c>
+      <c r="K1" t="str">
+        <v>P379</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Soort verzekering</v>
+      </c>
+      <c r="B2" t="str">
+        <v>10142</v>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>02 Soort verzekering            10142</v>
+      </c>
+      <c r="G2" t="str">
+        <v>x</v>
+      </c>
+      <c r="H2" t="str">
+        <v>x</v>
+      </c>
+      <c r="I2" t="str">
+        <v>x</v>
+      </c>
+      <c r="J2" t="str">
+        <v>x</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v>10142</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E3" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v>x</v>
+      </c>
+      <c r="H3" t="str">
+        <v>x</v>
+      </c>
+      <c r="I3" t="str">
+        <v>x</v>
+      </c>
+      <c r="J3" t="str">
+        <v>x</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Soort verzekering</v>
+      </c>
+      <c r="B4" t="str">
+        <v>VvAA camperverzekering</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v>02 Soort verzekering            VvAA camperverzekering</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Merk en type</v>
+      </c>
+      <c r="B5" t="str">
+        <v>10218 10219 10220</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v>03 Merk en type                 10218 10219 10220</v>
+      </c>
+      <c r="G5" t="str">
+        <v>x</v>
+      </c>
+      <c r="H5" t="str">
+        <v>x</v>
+      </c>
+      <c r="I5" t="str">
+        <v>x</v>
+      </c>
+      <c r="J5" t="str">
+        <v>x</v>
+      </c>
+      <c r="K5" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v>10218</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E6" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>x</v>
+      </c>
+      <c r="H6" t="str">
+        <v>x</v>
+      </c>
+      <c r="I6" t="str">
+        <v>x</v>
+      </c>
+      <c r="J6" t="str">
+        <v>x</v>
+      </c>
+      <c r="K6" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v>10219</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E7" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>x</v>
+      </c>
+      <c r="H7" t="str">
+        <v>x</v>
+      </c>
+      <c r="I7" t="str">
+        <v>x</v>
+      </c>
+      <c r="J7" t="str">
+        <v>x</v>
+      </c>
+      <c r="K7" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v>10220</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E8" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v>x</v>
+      </c>
+      <c r="H8" t="str">
+        <v>x</v>
+      </c>
+      <c r="I8" t="str">
+        <v>x</v>
+      </c>
+      <c r="J8" t="str">
+        <v>x</v>
+      </c>
+      <c r="K8" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Kenteken</v>
+      </c>
+      <c r="B9" t="str">
+        <v>10033</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>04 Kenteken                     10033</v>
+      </c>
+      <c r="G9" t="str">
+        <v>x</v>
+      </c>
+      <c r="H9" t="str">
+        <v>x</v>
+      </c>
+      <c r="I9" t="str">
+        <v>x</v>
+      </c>
+      <c r="J9" t="str">
+        <v>x</v>
+      </c>
+      <c r="K9" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v>10033</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E10" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v>x</v>
+      </c>
+      <c r="H10" t="str">
+        <v>x</v>
+      </c>
+      <c r="I10" t="str">
+        <v>x</v>
+      </c>
+      <c r="J10" t="str">
+        <v>x</v>
+      </c>
+      <c r="K10" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Meldcode</v>
+      </c>
+      <c r="B11" t="str">
+        <v>10112</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v>05 Meldcode                     10112</v>
+      </c>
+      <c r="G11" t="str">
+        <v>x</v>
+      </c>
+      <c r="H11" t="str">
+        <v>x</v>
+      </c>
+      <c r="I11" t="str">
+        <v>x</v>
+      </c>
+      <c r="J11" t="str">
+        <v>x</v>
+      </c>
+      <c r="K11" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v>10112</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E12" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v>x</v>
+      </c>
+      <c r="H12" t="str">
+        <v>x</v>
+      </c>
+      <c r="I12" t="str">
+        <v>x</v>
+      </c>
+      <c r="J12" t="str">
+        <v>x</v>
+      </c>
+      <c r="K12" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Beveiliging</v>
+      </c>
+      <c r="B13" t="str">
+        <v>11236</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v>06 Beveiliging                  11236</v>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v>x</v>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v>11236</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E14" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v>x</v>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Beveiligingssysteem</v>
+      </c>
+      <c r="B15" t="str">
+        <v>11236</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>06 Beveiligingssysteem          11236</v>
+      </c>
+      <c r="G15" t="str">
+        <v>x</v>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v>x</v>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v>11236</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E16" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v>x</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v>x</v>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Gebruik</v>
+      </c>
+      <c r="B17" t="str">
+        <v>10260</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v>07 Gebruik                      10260</v>
+      </c>
+      <c r="G17" t="str">
+        <v>x</v>
+      </c>
+      <c r="H17" t="str">
+        <v>x</v>
+      </c>
+      <c r="I17" t="str">
+        <v>x</v>
+      </c>
+      <c r="J17" t="str">
+        <v>x</v>
+      </c>
+      <c r="K17" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v>10260</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E18" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>x</v>
+      </c>
+      <c r="H18" t="str">
+        <v>x</v>
+      </c>
+      <c r="I18" t="str">
+        <v>x</v>
+      </c>
+      <c r="J18" t="str">
+        <v>x</v>
+      </c>
+      <c r="K18" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Kilometrage</v>
+      </c>
+      <c r="B19" t="str">
+        <v>10036</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v>08 Kilometrage                  10036</v>
+      </c>
+      <c r="G19" t="str">
+        <v>x</v>
+      </c>
+      <c r="H19" t="str">
+        <v>x</v>
+      </c>
+      <c r="I19" t="str">
+        <v>x</v>
+      </c>
+      <c r="J19" t="str">
+        <v>x</v>
+      </c>
+      <c r="K19" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v>10036</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E20" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>x</v>
+      </c>
+      <c r="H20" t="str">
+        <v>x</v>
+      </c>
+      <c r="I20" t="str">
+        <v>x</v>
+      </c>
+      <c r="J20" t="str">
+        <v>x</v>
+      </c>
+      <c r="K20" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Nieuwwaarderegeling</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Meeverzekerd voor 12398 maanden</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v>08 Nieuwwaarderegeling          Meeverzekerd voor 12398 maanden</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v>12398</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E22" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Regelmatige bestuurder</v>
+      </c>
+      <c r="B23" t="str">
+        <v>11213 11214 11212</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v>09 Regelmatige bestuurder       11213 11214 11212</v>
+      </c>
+      <c r="G23" t="str">
+        <v>x</v>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v>11213</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E24" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v>x</v>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v>11214</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E25" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>x</v>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v>11212</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E26" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>x</v>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Verhuur meeverzekerd</v>
+      </c>
+      <c r="B27" t="str">
+        <v>11674</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v>10 Verhuur meeverzekerd         11674</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v>x</v>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <v>11674</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E28" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v>x</v>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Zuivere schadevrije jaren</v>
+      </c>
+      <c r="B29" t="str">
+        <v>13218</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v>10 Zuivere schadevrije jaren    13218</v>
+      </c>
+      <c r="G29" t="str">
+        <v>x</v>
+      </c>
+      <c r="H29" t="str">
+        <v>x</v>
+      </c>
+      <c r="I29" t="str">
+        <v>x</v>
+      </c>
+      <c r="J29" t="str">
+        <v>x</v>
+      </c>
+      <c r="K29" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v>13218</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E30" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>x</v>
+      </c>
+      <c r="H30" t="str">
+        <v>x</v>
+      </c>
+      <c r="I30" t="str">
+        <v>x</v>
+      </c>
+      <c r="J30" t="str">
+        <v>x</v>
+      </c>
+      <c r="K30" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Bonus/malus</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Trede 10046 = 10050 %</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v>11 Bonus/malus                  Trede 10046 = 10050 %</v>
+      </c>
+      <c r="G31" t="str">
+        <v>x</v>
+      </c>
+      <c r="H31" t="str">
+        <v>x</v>
+      </c>
+      <c r="I31" t="str">
+        <v>x</v>
+      </c>
+      <c r="J31" t="str">
+        <v>x</v>
+      </c>
+      <c r="K31" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <v>10046</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E32" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v>x</v>
+      </c>
+      <c r="H32" t="str">
+        <v>x</v>
+      </c>
+      <c r="I32" t="str">
+        <v>x</v>
+      </c>
+      <c r="J32" t="str">
+        <v>x</v>
+      </c>
+      <c r="K32" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v>10050</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E33" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>x</v>
+      </c>
+      <c r="H33" t="str">
+        <v>x</v>
+      </c>
+      <c r="I33" t="str">
+        <v>x</v>
+      </c>
+      <c r="J33" t="str">
+        <v>x</v>
+      </c>
+      <c r="K33" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Extra/vrijwillig eigen risico</v>
+      </c>
+      <c r="B34" t="str">
+        <v>€ 11450</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v>11 Extra/vrijwillig eigen risico€ 11450</v>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <v>x</v>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v>11450</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E35" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v>x</v>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Extra/vrijwillig eigen risico</v>
+      </c>
+      <c r="B36" t="str">
+        <v>€ 10043</v>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v>12 Extra/vrijwillig eigen risico€ 10043</v>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v>10043</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E37" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Nieuwwaarde 5 jaar</v>
+      </c>
+      <c r="B38" t="str">
+        <v>12348</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v>12 Nieuwwaarde 5 jaar           12348</v>
+      </c>
+      <c r="G38" t="str">
+        <v>x</v>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v>x</v>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v>12348</v>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E39" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v>x</v>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v>x</v>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Nieuwwaardetermijn</v>
+      </c>
+      <c r="B40" t="str">
+        <v>12353 jaar</v>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v>12 Nieuwwaardetermijn           12353 jaar</v>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v>x</v>
+      </c>
+      <c r="K40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <v>12353</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E41" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <v>x</v>
+      </c>
+      <c r="K41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Extra's</v>
+      </c>
+      <c r="B42" t="str">
+        <v>€ 11239</v>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v>13 Extra's                      € 11239</v>
+      </c>
+      <c r="G42" t="str">
+        <v>x</v>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v>11239</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Getal exclusief decimalen</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E43" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v>x</v>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Eigen risico</v>
+      </c>
+      <c r="B44" t="str">
+        <v>€ 10043</v>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v>14 Eigen risico                 € 10043</v>
+      </c>
+      <c r="G44" t="str">
+        <v>x</v>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v>x</v>
+      </c>
+      <c r="J44" t="str">
+        <v>x</v>
+      </c>
+      <c r="K44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <v>10043</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E45" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v>x</v>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <v>x</v>
+      </c>
+      <c r="J45" t="str">
+        <v>x</v>
+      </c>
+      <c r="K45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Verzekerde rubrieken</v>
+      </c>
+      <c r="B46" t="str">
+        <v xml:space="preserve">                        Verzekerd bedrag</v>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v>16 Verzekerde rubrieken                             Verzekerd bedrag</v>
+      </c>
+      <c r="G46" t="str">
+        <v>x</v>
+      </c>
+      <c r="H46" t="str">
+        <v>x</v>
+      </c>
+      <c r="I46" t="str">
+        <v>x</v>
+      </c>
+      <c r="J46" t="str">
+        <v>x</v>
+      </c>
+      <c r="K46" t="str">
+        <v>x</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:K46"/>
+  </ignoredErrors>
+</worksheet>
 </file>